--- a/doc/Zeitplan/Zeitplan.xlsx
+++ b/doc/Zeitplan/Zeitplan.xlsx
@@ -620,45 +620,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -758,6 +719,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1061,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BQ24" sqref="BQ24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,107 +1083,107 @@
       <c r="B2" s="3"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="28" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36" t="s">
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="28" t="s">
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="96"/>
+      <c r="AU2" s="96"/>
+      <c r="AV2" s="96"/>
+      <c r="AW2" s="96"/>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96"/>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="96"/>
+      <c r="BH2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="BI2" s="29"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="29"/>
-      <c r="BL2" s="29"/>
-      <c r="BM2" s="29"/>
-      <c r="BN2" s="29"/>
-      <c r="BO2" s="29"/>
-      <c r="BP2" s="29"/>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="29"/>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="29"/>
-      <c r="BY2" s="29"/>
-      <c r="BZ2" s="29"/>
-      <c r="CA2" s="35"/>
-      <c r="CB2" s="28" t="s">
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="88"/>
+      <c r="BL2" s="88"/>
+      <c r="BM2" s="88"/>
+      <c r="BN2" s="88"/>
+      <c r="BO2" s="88"/>
+      <c r="BP2" s="88"/>
+      <c r="BQ2" s="88"/>
+      <c r="BR2" s="88"/>
+      <c r="BS2" s="88"/>
+      <c r="BT2" s="88"/>
+      <c r="BU2" s="88"/>
+      <c r="BV2" s="88"/>
+      <c r="BW2" s="88"/>
+      <c r="BX2" s="88"/>
+      <c r="BY2" s="88"/>
+      <c r="BZ2" s="88"/>
+      <c r="CA2" s="89"/>
+      <c r="CB2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="29"/>
-      <c r="CD2" s="29"/>
-      <c r="CE2" s="29"/>
-      <c r="CF2" s="29"/>
-      <c r="CG2" s="29"/>
-      <c r="CH2" s="29"/>
-      <c r="CI2" s="29"/>
-      <c r="CJ2" s="29"/>
-      <c r="CK2" s="33"/>
+      <c r="CC2" s="88"/>
+      <c r="CD2" s="88"/>
+      <c r="CE2" s="88"/>
+      <c r="CF2" s="88"/>
+      <c r="CG2" s="88"/>
+      <c r="CH2" s="88"/>
+      <c r="CI2" s="88"/>
+      <c r="CJ2" s="88"/>
+      <c r="CK2" s="97"/>
     </row>
     <row r="3" spans="1:90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -1192,521 +1192,525 @@
       <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="92">
         <v>16</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31">
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93">
         <v>23</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="30">
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="92">
         <v>2</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31">
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93">
         <v>9</v>
       </c>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31">
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93">
         <v>16</v>
       </c>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31">
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93">
         <v>23</v>
       </c>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31">
+      <c r="AE3" s="93"/>
+      <c r="AF3" s="93"/>
+      <c r="AG3" s="93"/>
+      <c r="AH3" s="93"/>
+      <c r="AI3" s="93">
         <v>30</v>
       </c>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="30">
+      <c r="AJ3" s="93"/>
+      <c r="AK3" s="93"/>
+      <c r="AL3" s="93"/>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="92">
         <v>6</v>
       </c>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31">
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="93"/>
+      <c r="AQ3" s="93"/>
+      <c r="AR3" s="93"/>
+      <c r="AS3" s="93">
         <v>13</v>
       </c>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31">
+      <c r="AT3" s="93"/>
+      <c r="AU3" s="93"/>
+      <c r="AV3" s="93"/>
+      <c r="AW3" s="93"/>
+      <c r="AX3" s="93">
         <v>20</v>
       </c>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31">
+      <c r="AY3" s="93"/>
+      <c r="AZ3" s="93"/>
+      <c r="BA3" s="93"/>
+      <c r="BB3" s="93"/>
+      <c r="BC3" s="93">
         <v>27</v>
       </c>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="31">
+      <c r="BD3" s="93"/>
+      <c r="BE3" s="93"/>
+      <c r="BF3" s="93"/>
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="93">
         <v>4</v>
       </c>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="31">
+      <c r="BI3" s="93"/>
+      <c r="BJ3" s="93"/>
+      <c r="BK3" s="93"/>
+      <c r="BL3" s="93"/>
+      <c r="BM3" s="93">
         <v>11</v>
       </c>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="31"/>
-      <c r="BQ3" s="31"/>
-      <c r="BR3" s="31">
+      <c r="BN3" s="93"/>
+      <c r="BO3" s="93"/>
+      <c r="BP3" s="93"/>
+      <c r="BQ3" s="93"/>
+      <c r="BR3" s="93">
         <v>18</v>
       </c>
-      <c r="BS3" s="31"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="31"/>
-      <c r="BW3" s="31">
+      <c r="BS3" s="93"/>
+      <c r="BT3" s="93"/>
+      <c r="BU3" s="93"/>
+      <c r="BV3" s="93"/>
+      <c r="BW3" s="93">
         <v>25</v>
       </c>
-      <c r="BX3" s="31"/>
-      <c r="BY3" s="31"/>
-      <c r="BZ3" s="31"/>
-      <c r="CA3" s="32"/>
-      <c r="CB3" s="30">
+      <c r="BX3" s="93"/>
+      <c r="BY3" s="93"/>
+      <c r="BZ3" s="93"/>
+      <c r="CA3" s="94"/>
+      <c r="CB3" s="92">
         <v>1</v>
       </c>
-      <c r="CC3" s="31"/>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="31"/>
-      <c r="CF3" s="31"/>
-      <c r="CG3" s="31">
+      <c r="CC3" s="93"/>
+      <c r="CD3" s="93"/>
+      <c r="CE3" s="93"/>
+      <c r="CF3" s="93"/>
+      <c r="CG3" s="93">
         <v>8</v>
       </c>
-      <c r="CH3" s="31"/>
-      <c r="CI3" s="31"/>
-      <c r="CJ3" s="31"/>
-      <c r="CK3" s="32"/>
+      <c r="CH3" s="93"/>
+      <c r="CI3" s="93"/>
+      <c r="CJ3" s="93"/>
+      <c r="CK3" s="94"/>
     </row>
     <row r="4" spans="1:90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="48">
         <v>42051</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="49">
         <v>42062</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AP4" s="64"/>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="64"/>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="64"/>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="64"/>
-      <c r="BK4" s="64"/>
-      <c r="BL4" s="64"/>
-      <c r="BM4" s="64"/>
-      <c r="BN4" s="64"/>
-      <c r="BO4" s="64"/>
-      <c r="BP4" s="64"/>
-      <c r="BQ4" s="64"/>
-      <c r="BR4" s="64"/>
-      <c r="BS4" s="64"/>
-      <c r="BT4" s="64"/>
-      <c r="BU4" s="64"/>
-      <c r="BV4" s="64"/>
-      <c r="BW4" s="64"/>
-      <c r="BX4" s="64"/>
-      <c r="BY4" s="64"/>
-      <c r="BZ4" s="64"/>
-      <c r="CA4" s="73"/>
-      <c r="CB4" s="64"/>
-      <c r="CC4" s="64"/>
-      <c r="CD4" s="64"/>
-      <c r="CE4" s="64"/>
-      <c r="CF4" s="64"/>
-      <c r="CG4" s="64"/>
-      <c r="CH4" s="64"/>
-      <c r="CI4" s="64"/>
-      <c r="CJ4" s="64"/>
-      <c r="CK4" s="75"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="51"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="51"/>
+      <c r="BV4" s="51"/>
+      <c r="BW4" s="51"/>
+      <c r="BX4" s="51"/>
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="51"/>
+      <c r="CC4" s="51"/>
+      <c r="CD4" s="51"/>
+      <c r="CE4" s="51"/>
+      <c r="CF4" s="51"/>
+      <c r="CG4" s="51"/>
+      <c r="CH4" s="51"/>
+      <c r="CI4" s="51"/>
+      <c r="CJ4" s="51"/>
+      <c r="CK4" s="62"/>
     </row>
     <row r="5" spans="1:90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="48">
         <v>42065</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="49">
         <v>42076</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="65"/>
-      <c r="AJ5" s="65"/>
-      <c r="AK5" s="65"/>
-      <c r="AL5" s="65"/>
-      <c r="AM5" s="65"/>
-      <c r="AN5" s="64"/>
-      <c r="AO5" s="64"/>
-      <c r="AP5" s="64"/>
-      <c r="AQ5" s="64"/>
-      <c r="AR5" s="64"/>
-      <c r="AS5" s="64"/>
-      <c r="AT5" s="64"/>
-      <c r="AU5" s="64"/>
-      <c r="AV5" s="64"/>
-      <c r="AW5" s="64"/>
-      <c r="AX5" s="64"/>
-      <c r="AY5" s="64"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="64"/>
-      <c r="BB5" s="64"/>
-      <c r="BC5" s="66"/>
-      <c r="BD5" s="66"/>
-      <c r="BE5" s="66"/>
-      <c r="BF5" s="66"/>
-      <c r="BG5" s="66"/>
-      <c r="BH5" s="64"/>
-      <c r="BI5" s="64"/>
-      <c r="BJ5" s="64"/>
-      <c r="BK5" s="64"/>
-      <c r="BL5" s="64"/>
-      <c r="BM5" s="64"/>
-      <c r="BN5" s="64"/>
-      <c r="BO5" s="64"/>
-      <c r="BP5" s="64"/>
-      <c r="BQ5" s="64"/>
-      <c r="BR5" s="64"/>
-      <c r="BS5" s="64"/>
-      <c r="BT5" s="64"/>
-      <c r="BU5" s="64"/>
-      <c r="BV5" s="64"/>
-      <c r="BW5" s="64"/>
-      <c r="BX5" s="64"/>
-      <c r="BY5" s="64"/>
-      <c r="BZ5" s="64"/>
-      <c r="CA5" s="73"/>
-      <c r="CB5" s="64"/>
-      <c r="CC5" s="64"/>
-      <c r="CD5" s="64"/>
-      <c r="CE5" s="64"/>
-      <c r="CF5" s="64"/>
-      <c r="CG5" s="64"/>
-      <c r="CH5" s="64"/>
-      <c r="CI5" s="64"/>
-      <c r="CJ5" s="64"/>
-      <c r="CK5" s="75"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="51"/>
+      <c r="AO5" s="51"/>
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="51"/>
+      <c r="AS5" s="51"/>
+      <c r="AT5" s="51"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="51"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="53"/>
+      <c r="BG5" s="53"/>
+      <c r="BH5" s="51"/>
+      <c r="BI5" s="51"/>
+      <c r="BJ5" s="51"/>
+      <c r="BK5" s="51"/>
+      <c r="BL5" s="51"/>
+      <c r="BM5" s="51"/>
+      <c r="BN5" s="51"/>
+      <c r="BO5" s="51"/>
+      <c r="BP5" s="51"/>
+      <c r="BQ5" s="51"/>
+      <c r="BR5" s="51"/>
+      <c r="BS5" s="51"/>
+      <c r="BT5" s="51"/>
+      <c r="BU5" s="51"/>
+      <c r="BV5" s="51"/>
+      <c r="BW5" s="51"/>
+      <c r="BX5" s="51"/>
+      <c r="BY5" s="51"/>
+      <c r="BZ5" s="51"/>
+      <c r="CA5" s="60"/>
+      <c r="CB5" s="51"/>
+      <c r="CC5" s="51"/>
+      <c r="CD5" s="51"/>
+      <c r="CE5" s="51"/>
+      <c r="CF5" s="51"/>
+      <c r="CG5" s="51"/>
+      <c r="CH5" s="51"/>
+      <c r="CI5" s="51"/>
+      <c r="CJ5" s="51"/>
+      <c r="CK5" s="62"/>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="48">
         <v>42051</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="49">
         <v>42076</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="64"/>
-      <c r="AA6" s="64"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="64"/>
-      <c r="AE6" s="64"/>
-      <c r="AF6" s="64"/>
-      <c r="AG6" s="64"/>
-      <c r="AH6" s="64"/>
-      <c r="AI6" s="65"/>
-      <c r="AJ6" s="65"/>
-      <c r="AK6" s="65"/>
-      <c r="AL6" s="65"/>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="64"/>
-      <c r="AO6" s="64"/>
-      <c r="AP6" s="64"/>
-      <c r="AQ6" s="64"/>
-      <c r="AR6" s="64"/>
-      <c r="AS6" s="64"/>
-      <c r="AT6" s="64"/>
-      <c r="AU6" s="64"/>
-      <c r="AV6" s="64"/>
-      <c r="AW6" s="64"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="66"/>
-      <c r="BD6" s="66"/>
-      <c r="BE6" s="66"/>
-      <c r="BF6" s="66"/>
-      <c r="BG6" s="66"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="64"/>
-      <c r="BP6" s="64"/>
-      <c r="BQ6" s="64"/>
-      <c r="BR6" s="64"/>
-      <c r="BS6" s="64"/>
-      <c r="BT6" s="64"/>
-      <c r="BU6" s="64"/>
-      <c r="BV6" s="64"/>
-      <c r="BW6" s="64"/>
-      <c r="BX6" s="64"/>
-      <c r="BY6" s="64"/>
-      <c r="BZ6" s="64"/>
-      <c r="CA6" s="73"/>
-      <c r="CB6" s="64"/>
-      <c r="CC6" s="64"/>
-      <c r="CD6" s="64"/>
-      <c r="CE6" s="64"/>
-      <c r="CF6" s="64"/>
-      <c r="CG6" s="64"/>
-      <c r="CH6" s="64"/>
-      <c r="CI6" s="64"/>
-      <c r="CJ6" s="64"/>
-      <c r="CK6" s="75"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="51"/>
+      <c r="BI6" s="51"/>
+      <c r="BJ6" s="51"/>
+      <c r="BK6" s="51"/>
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="51"/>
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="51"/>
+      <c r="BP6" s="51"/>
+      <c r="BQ6" s="51"/>
+      <c r="BR6" s="51"/>
+      <c r="BS6" s="51"/>
+      <c r="BT6" s="51"/>
+      <c r="BU6" s="51"/>
+      <c r="BV6" s="51"/>
+      <c r="BW6" s="51"/>
+      <c r="BX6" s="51"/>
+      <c r="BY6" s="51"/>
+      <c r="BZ6" s="51"/>
+      <c r="CA6" s="60"/>
+      <c r="CB6" s="51"/>
+      <c r="CC6" s="51"/>
+      <c r="CD6" s="51"/>
+      <c r="CE6" s="51"/>
+      <c r="CF6" s="51"/>
+      <c r="CG6" s="51"/>
+      <c r="CH6" s="51"/>
+      <c r="CI6" s="51"/>
+      <c r="CJ6" s="51"/>
+      <c r="CK6" s="62"/>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="65"/>
-      <c r="AJ7" s="65"/>
-      <c r="AK7" s="65"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="65"/>
-      <c r="AN7" s="64"/>
-      <c r="AO7" s="64"/>
-      <c r="AP7" s="64"/>
-      <c r="AQ7" s="64"/>
-      <c r="AR7" s="64"/>
-      <c r="AS7" s="64"/>
-      <c r="AT7" s="64"/>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="64"/>
-      <c r="AW7" s="64"/>
-      <c r="AX7" s="64"/>
-      <c r="AY7" s="64"/>
-      <c r="AZ7" s="64"/>
-      <c r="BA7" s="64"/>
-      <c r="BB7" s="64"/>
-      <c r="BC7" s="66"/>
-      <c r="BD7" s="66"/>
-      <c r="BE7" s="66"/>
-      <c r="BF7" s="66"/>
-      <c r="BG7" s="66"/>
-      <c r="BH7" s="64"/>
-      <c r="BI7" s="64"/>
-      <c r="BJ7" s="64"/>
-      <c r="BK7" s="64"/>
-      <c r="BL7" s="64"/>
-      <c r="BM7" s="64"/>
-      <c r="BN7" s="64"/>
-      <c r="BO7" s="64"/>
-      <c r="BP7" s="64"/>
-      <c r="BQ7" s="64"/>
-      <c r="BR7" s="64"/>
-      <c r="BS7" s="64"/>
-      <c r="BT7" s="64"/>
-      <c r="BU7" s="64"/>
-      <c r="BV7" s="64"/>
-      <c r="BW7" s="64"/>
-      <c r="BX7" s="64"/>
-      <c r="BY7" s="64"/>
-      <c r="BZ7" s="64"/>
-      <c r="CA7" s="73"/>
-      <c r="CB7" s="64"/>
-      <c r="CC7" s="64"/>
-      <c r="CD7" s="64"/>
-      <c r="CE7" s="64"/>
-      <c r="CF7" s="64"/>
-      <c r="CG7" s="64"/>
-      <c r="CH7" s="64"/>
-      <c r="CI7" s="64"/>
-      <c r="CJ7" s="64"/>
-      <c r="CK7" s="75"/>
+      <c r="C7" s="48">
+        <v>42058</v>
+      </c>
+      <c r="D7" s="49">
+        <v>42071</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="51"/>
+      <c r="AF7" s="51"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="51"/>
+      <c r="AO7" s="51"/>
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="51"/>
+      <c r="AS7" s="51"/>
+      <c r="AT7" s="51"/>
+      <c r="AU7" s="51"/>
+      <c r="AV7" s="51"/>
+      <c r="AW7" s="51"/>
+      <c r="AX7" s="51"/>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="51"/>
+      <c r="BA7" s="51"/>
+      <c r="BB7" s="51"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="53"/>
+      <c r="BG7" s="53"/>
+      <c r="BH7" s="51"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="51"/>
+      <c r="BK7" s="51"/>
+      <c r="BL7" s="51"/>
+      <c r="BM7" s="51"/>
+      <c r="BN7" s="51"/>
+      <c r="BO7" s="51"/>
+      <c r="BP7" s="51"/>
+      <c r="BQ7" s="51"/>
+      <c r="BR7" s="51"/>
+      <c r="BS7" s="51"/>
+      <c r="BT7" s="51"/>
+      <c r="BU7" s="51"/>
+      <c r="BV7" s="51"/>
+      <c r="BW7" s="51"/>
+      <c r="BX7" s="51"/>
+      <c r="BY7" s="51"/>
+      <c r="BZ7" s="51"/>
+      <c r="CA7" s="60"/>
+      <c r="CB7" s="51"/>
+      <c r="CC7" s="51"/>
+      <c r="CD7" s="51"/>
+      <c r="CE7" s="51"/>
+      <c r="CF7" s="51"/>
+      <c r="CG7" s="51"/>
+      <c r="CH7" s="51"/>
+      <c r="CI7" s="51"/>
+      <c r="CJ7" s="51"/>
+      <c r="CK7" s="62"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="22"/>
       <c r="D8" s="23"/>
       <c r="E8" s="24"/>
@@ -1729,11 +1733,11 @@
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
       <c r="X8" s="26"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
       <c r="AD8" s="24"/>
       <c r="AE8" s="24"/>
       <c r="AF8" s="24"/>
@@ -1793,109 +1797,117 @@
       <c r="CH8" s="24"/>
       <c r="CI8" s="24"/>
       <c r="CJ8" s="24"/>
-      <c r="CK8" s="74"/>
+      <c r="CK8" s="61"/>
       <c r="CL8" s="16"/>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="64"/>
-      <c r="AV9" s="64"/>
-      <c r="AW9" s="64"/>
-      <c r="AX9" s="64"/>
-      <c r="AY9" s="64"/>
-      <c r="AZ9" s="64"/>
-      <c r="BA9" s="64"/>
-      <c r="BB9" s="64"/>
-      <c r="BC9" s="66"/>
-      <c r="BD9" s="66"/>
-      <c r="BE9" s="66"/>
-      <c r="BF9" s="66"/>
-      <c r="BG9" s="66"/>
-      <c r="BH9" s="64"/>
-      <c r="BI9" s="64"/>
-      <c r="BJ9" s="64"/>
-      <c r="BK9" s="64"/>
-      <c r="BL9" s="64"/>
-      <c r="BM9" s="64"/>
-      <c r="BN9" s="64"/>
-      <c r="BO9" s="64"/>
-      <c r="BP9" s="64"/>
-      <c r="BQ9" s="64"/>
-      <c r="BR9" s="64"/>
-      <c r="BS9" s="64"/>
-      <c r="BT9" s="64"/>
-      <c r="BU9" s="64"/>
-      <c r="BV9" s="64"/>
-      <c r="BW9" s="64"/>
-      <c r="BX9" s="64"/>
-      <c r="BY9" s="64"/>
-      <c r="BZ9" s="64"/>
-      <c r="CA9" s="73"/>
-      <c r="CB9" s="64"/>
-      <c r="CC9" s="64"/>
-      <c r="CD9" s="64"/>
-      <c r="CE9" s="64"/>
-      <c r="CF9" s="64"/>
-      <c r="CG9" s="64"/>
-      <c r="CH9" s="64"/>
-      <c r="CI9" s="64"/>
-      <c r="CJ9" s="73"/>
-      <c r="CK9" s="75"/>
+      <c r="C9" s="57">
+        <v>42079</v>
+      </c>
+      <c r="D9" s="58">
+        <v>42087</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="60"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="51"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="51"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="51"/>
+      <c r="AO9" s="51"/>
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="51"/>
+      <c r="AT9" s="51"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="51"/>
+      <c r="AW9" s="51"/>
+      <c r="AX9" s="51"/>
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="51"/>
+      <c r="BA9" s="51"/>
+      <c r="BB9" s="51"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="53"/>
+      <c r="BF9" s="53"/>
+      <c r="BG9" s="53"/>
+      <c r="BH9" s="51"/>
+      <c r="BI9" s="51"/>
+      <c r="BJ9" s="51"/>
+      <c r="BK9" s="51"/>
+      <c r="BL9" s="51"/>
+      <c r="BM9" s="51"/>
+      <c r="BN9" s="51"/>
+      <c r="BO9" s="51"/>
+      <c r="BP9" s="51"/>
+      <c r="BQ9" s="51"/>
+      <c r="BR9" s="51"/>
+      <c r="BS9" s="51"/>
+      <c r="BT9" s="51"/>
+      <c r="BU9" s="51"/>
+      <c r="BV9" s="51"/>
+      <c r="BW9" s="51"/>
+      <c r="BX9" s="51"/>
+      <c r="BY9" s="51"/>
+      <c r="BZ9" s="51"/>
+      <c r="CA9" s="60"/>
+      <c r="CB9" s="51"/>
+      <c r="CC9" s="51"/>
+      <c r="CD9" s="51"/>
+      <c r="CE9" s="51"/>
+      <c r="CF9" s="51"/>
+      <c r="CG9" s="51"/>
+      <c r="CH9" s="51"/>
+      <c r="CI9" s="51"/>
+      <c r="CJ9" s="60"/>
+      <c r="CK9" s="62"/>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="22">
+        <v>42088</v>
+      </c>
+      <c r="D10" s="23">
+        <v>42108</v>
+      </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -1921,23 +1933,23 @@
       <c r="AA10" s="24"/>
       <c r="AB10" s="24"/>
       <c r="AC10" s="24"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
       <c r="AI10" s="25"/>
       <c r="AJ10" s="25"/>
       <c r="AK10" s="25"/>
       <c r="AL10" s="25"/>
       <c r="AM10" s="25"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
+      <c r="AN10" s="28"/>
+      <c r="AO10" s="28"/>
+      <c r="AP10" s="28"/>
+      <c r="AQ10" s="28"/>
+      <c r="AR10" s="28"/>
+      <c r="AS10" s="28"/>
+      <c r="AT10" s="28"/>
       <c r="AU10" s="24"/>
       <c r="AV10" s="24"/>
       <c r="AW10" s="24"/>
@@ -1982,438 +1994,450 @@
       <c r="CJ10" s="26"/>
       <c r="CK10" s="26"/>
     </row>
-    <row r="11" spans="1:90" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69" t="s">
+    <row r="11" spans="1:90" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="65"/>
-      <c r="AJ11" s="65"/>
-      <c r="AK11" s="65"/>
-      <c r="AL11" s="65"/>
-      <c r="AM11" s="65"/>
-      <c r="AN11" s="64"/>
-      <c r="AO11" s="64"/>
-      <c r="AP11" s="64"/>
-      <c r="AQ11" s="64"/>
-      <c r="AR11" s="64"/>
-      <c r="AS11" s="64"/>
-      <c r="AT11" s="64"/>
-      <c r="AU11" s="64"/>
-      <c r="AV11" s="64"/>
-      <c r="AW11" s="64"/>
-      <c r="AX11" s="64"/>
-      <c r="AY11" s="64"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="66"/>
-      <c r="BD11" s="66"/>
-      <c r="BE11" s="66"/>
-      <c r="BF11" s="66"/>
-      <c r="BG11" s="66"/>
-      <c r="BH11" s="64"/>
-      <c r="BI11" s="64"/>
-      <c r="BJ11" s="64"/>
-      <c r="BK11" s="64"/>
-      <c r="BL11" s="64"/>
-      <c r="BM11" s="64"/>
-      <c r="BN11" s="64"/>
-      <c r="BO11" s="64"/>
-      <c r="BP11" s="64"/>
-      <c r="BQ11" s="64"/>
-      <c r="BR11" s="64"/>
-      <c r="BS11" s="64"/>
-      <c r="BT11" s="64"/>
-      <c r="BU11" s="64"/>
-      <c r="BV11" s="64"/>
-      <c r="BW11" s="64"/>
-      <c r="BX11" s="64"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="64"/>
-      <c r="CA11" s="73"/>
-      <c r="CB11" s="64"/>
-      <c r="CC11" s="64"/>
-      <c r="CD11" s="64"/>
-      <c r="CE11" s="64"/>
-      <c r="CF11" s="64"/>
-      <c r="CG11" s="64"/>
-      <c r="CH11" s="64"/>
-      <c r="CI11" s="64"/>
-      <c r="CJ11" s="73"/>
-      <c r="CK11" s="73"/>
-    </row>
-    <row r="12" spans="1:90" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="60" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="51"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="51"/>
+      <c r="AO11" s="51"/>
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="51"/>
+      <c r="AS11" s="51"/>
+      <c r="AT11" s="51"/>
+      <c r="AU11" s="51"/>
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="51"/>
+      <c r="AX11" s="51"/>
+      <c r="AY11" s="51"/>
+      <c r="AZ11" s="51"/>
+      <c r="BA11" s="51"/>
+      <c r="BB11" s="51"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+      <c r="BF11" s="53"/>
+      <c r="BG11" s="53"/>
+      <c r="BH11" s="51"/>
+      <c r="BI11" s="51"/>
+      <c r="BJ11" s="51"/>
+      <c r="BK11" s="51"/>
+      <c r="BL11" s="51"/>
+      <c r="BM11" s="51"/>
+      <c r="BN11" s="51"/>
+      <c r="BO11" s="51"/>
+      <c r="BP11" s="51"/>
+      <c r="BQ11" s="51"/>
+      <c r="BR11" s="51"/>
+      <c r="BS11" s="51"/>
+      <c r="BT11" s="51"/>
+      <c r="BU11" s="51"/>
+      <c r="BV11" s="51"/>
+      <c r="BW11" s="51"/>
+      <c r="BX11" s="51"/>
+      <c r="BY11" s="51"/>
+      <c r="BZ11" s="51"/>
+      <c r="CA11" s="60"/>
+      <c r="CB11" s="51"/>
+      <c r="CC11" s="51"/>
+      <c r="CD11" s="51"/>
+      <c r="CE11" s="51"/>
+      <c r="CF11" s="51"/>
+      <c r="CG11" s="51"/>
+      <c r="CH11" s="51"/>
+      <c r="CI11" s="51"/>
+      <c r="CJ11" s="60"/>
+      <c r="CK11" s="60"/>
+    </row>
+    <row r="12" spans="1:90" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="64"/>
-      <c r="AQ12" s="64"/>
-      <c r="AR12" s="64"/>
-      <c r="AS12" s="64"/>
-      <c r="AT12" s="64"/>
-      <c r="AU12" s="64"/>
-      <c r="AV12" s="64"/>
-      <c r="AW12" s="64"/>
-      <c r="AX12" s="64"/>
-      <c r="AY12" s="64"/>
-      <c r="AZ12" s="64"/>
-      <c r="BA12" s="64"/>
-      <c r="BB12" s="64"/>
-      <c r="BC12" s="66"/>
-      <c r="BD12" s="66"/>
-      <c r="BE12" s="66"/>
-      <c r="BF12" s="66"/>
-      <c r="BG12" s="66"/>
-      <c r="BH12" s="64"/>
-      <c r="BI12" s="64"/>
-      <c r="BJ12" s="64"/>
-      <c r="BK12" s="64"/>
-      <c r="BL12" s="64"/>
-      <c r="BM12" s="64"/>
-      <c r="BN12" s="64"/>
-      <c r="BO12" s="64"/>
-      <c r="BP12" s="64"/>
-      <c r="BQ12" s="64"/>
-      <c r="BR12" s="64"/>
-      <c r="BS12" s="64"/>
-      <c r="BT12" s="64"/>
-      <c r="BU12" s="64"/>
-      <c r="BV12" s="64"/>
-      <c r="BW12" s="64"/>
-      <c r="BX12" s="64"/>
-      <c r="BY12" s="64"/>
-      <c r="BZ12" s="64"/>
-      <c r="CA12" s="73"/>
-      <c r="CB12" s="64"/>
-      <c r="CC12" s="64"/>
-      <c r="CD12" s="64"/>
-      <c r="CE12" s="64"/>
-      <c r="CF12" s="64"/>
-      <c r="CG12" s="64"/>
-      <c r="CH12" s="64"/>
-      <c r="CI12" s="64"/>
-      <c r="CJ12" s="73"/>
-      <c r="CK12" s="73"/>
-    </row>
-    <row r="13" spans="1:90" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="77" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="63"/>
+      <c r="AI12" s="63"/>
+      <c r="AJ12" s="63"/>
+      <c r="AK12" s="63"/>
+      <c r="AL12" s="63"/>
+      <c r="AM12" s="63"/>
+      <c r="AN12" s="63"/>
+      <c r="AO12" s="63"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="53"/>
+      <c r="BD12" s="53"/>
+      <c r="BE12" s="53"/>
+      <c r="BF12" s="53"/>
+      <c r="BG12" s="53"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="51"/>
+      <c r="BN12" s="51"/>
+      <c r="BO12" s="51"/>
+      <c r="BP12" s="51"/>
+      <c r="BQ12" s="51"/>
+      <c r="BR12" s="51"/>
+      <c r="BS12" s="51"/>
+      <c r="BT12" s="51"/>
+      <c r="BU12" s="51"/>
+      <c r="BV12" s="51"/>
+      <c r="BW12" s="51"/>
+      <c r="BX12" s="51"/>
+      <c r="BY12" s="51"/>
+      <c r="BZ12" s="51"/>
+      <c r="CA12" s="60"/>
+      <c r="CB12" s="51"/>
+      <c r="CC12" s="51"/>
+      <c r="CD12" s="51"/>
+      <c r="CE12" s="51"/>
+      <c r="CF12" s="51"/>
+      <c r="CG12" s="51"/>
+      <c r="CH12" s="51"/>
+      <c r="CI12" s="51"/>
+      <c r="CJ12" s="60"/>
+      <c r="CK12" s="60"/>
+    </row>
+    <row r="13" spans="1:90" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
+      <c r="B13" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="X13" s="80"/>
-      <c r="AI13" s="81"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="81"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="81"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="82"/>
-      <c r="AQ13" s="82"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="BC13" s="66"/>
-      <c r="BD13" s="66"/>
-      <c r="BE13" s="66"/>
-      <c r="BF13" s="66"/>
-      <c r="BG13" s="66"/>
-      <c r="CA13" s="80"/>
-      <c r="CJ13" s="80"/>
-      <c r="CK13" s="80"/>
-    </row>
-    <row r="14" spans="1:90" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="X13" s="67"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="53"/>
+      <c r="BG13" s="53"/>
+      <c r="CA13" s="67"/>
+      <c r="CJ13" s="67"/>
+      <c r="CK13" s="67"/>
+    </row>
+    <row r="14" spans="1:90" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="X14" s="80"/>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="81"/>
-      <c r="AK14" s="81"/>
-      <c r="AL14" s="81"/>
-      <c r="AM14" s="81"/>
-      <c r="AS14" s="83"/>
-      <c r="AT14" s="83"/>
-      <c r="AU14" s="82"/>
-      <c r="AV14" s="82"/>
-      <c r="AW14" s="82"/>
-      <c r="AX14" s="82"/>
-      <c r="AY14" s="82"/>
-      <c r="AZ14" s="82"/>
-      <c r="BA14" s="82"/>
-      <c r="BB14" s="82"/>
-      <c r="BC14" s="84"/>
-      <c r="BD14" s="84"/>
-      <c r="BE14" s="66"/>
-      <c r="BF14" s="66"/>
-      <c r="BG14" s="66"/>
-      <c r="CA14" s="80"/>
-      <c r="CJ14" s="80"/>
-      <c r="CK14" s="80"/>
-    </row>
-    <row r="15" spans="1:90" s="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="69" t="s">
+      <c r="C14" s="65">
+        <v>42109</v>
+      </c>
+      <c r="D14" s="66">
+        <v>42123</v>
+      </c>
+      <c r="X14" s="67"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AS14" s="70"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
+      <c r="BC14" s="71"/>
+      <c r="BD14" s="71"/>
+      <c r="BE14" s="53"/>
+      <c r="BF14" s="53"/>
+      <c r="BG14" s="53"/>
+      <c r="CA14" s="67"/>
+      <c r="CJ14" s="67"/>
+      <c r="CK14" s="67"/>
+    </row>
+    <row r="15" spans="1:90" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="X15" s="80"/>
-      <c r="AI15" s="81"/>
-      <c r="AJ15" s="81"/>
-      <c r="AK15" s="81"/>
-      <c r="AL15" s="81"/>
-      <c r="AM15" s="81"/>
-      <c r="AS15" s="83"/>
-      <c r="AT15" s="83"/>
-      <c r="AV15" s="82"/>
-      <c r="BC15" s="66"/>
-      <c r="BD15" s="66"/>
-      <c r="BE15" s="66"/>
-      <c r="BF15" s="66"/>
-      <c r="BG15" s="66"/>
-      <c r="CA15" s="80"/>
-      <c r="CJ15" s="80"/>
-      <c r="CK15" s="80"/>
-    </row>
-    <row r="16" spans="1:90" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="60" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="X15" s="67"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="70"/>
+      <c r="AV15" s="69"/>
+      <c r="BC15" s="53"/>
+      <c r="BD15" s="53"/>
+      <c r="BE15" s="53"/>
+      <c r="BF15" s="53"/>
+      <c r="BG15" s="53"/>
+      <c r="CA15" s="67"/>
+      <c r="CJ15" s="67"/>
+      <c r="CK15" s="67"/>
+    </row>
+    <row r="16" spans="1:90" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="X16" s="80"/>
-      <c r="AI16" s="81"/>
-      <c r="AJ16" s="81"/>
-      <c r="AK16" s="81"/>
-      <c r="AL16" s="81"/>
-      <c r="AM16" s="81"/>
-      <c r="AV16" s="82"/>
-      <c r="AW16" s="82"/>
-      <c r="AX16" s="82"/>
-      <c r="AY16" s="82"/>
-      <c r="BC16" s="66"/>
-      <c r="BD16" s="66"/>
-      <c r="BE16" s="66"/>
-      <c r="BF16" s="66"/>
-      <c r="BG16" s="66"/>
-      <c r="CA16" s="80"/>
-      <c r="CJ16" s="80"/>
-      <c r="CK16" s="80"/>
-    </row>
-    <row r="17" spans="1:89" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="X16" s="67"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="69"/>
+      <c r="BC16" s="53"/>
+      <c r="BD16" s="53"/>
+      <c r="BE16" s="53"/>
+      <c r="BF16" s="53"/>
+      <c r="BG16" s="53"/>
+      <c r="CA16" s="67"/>
+      <c r="CJ16" s="67"/>
+      <c r="CK16" s="67"/>
+    </row>
+    <row r="17" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="X17" s="80"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="81"/>
-      <c r="AL17" s="81"/>
-      <c r="AM17" s="81"/>
-      <c r="AY17" s="82"/>
-      <c r="AZ17" s="82"/>
-      <c r="BA17" s="82"/>
-      <c r="BB17" s="82"/>
-      <c r="BC17" s="66"/>
-      <c r="BD17" s="66"/>
-      <c r="BE17" s="66"/>
-      <c r="BF17" s="66"/>
-      <c r="BG17" s="66"/>
-      <c r="CA17" s="80"/>
-      <c r="CJ17" s="80"/>
-      <c r="CK17" s="80"/>
-    </row>
-    <row r="18" spans="1:89" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69" t="s">
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="X17" s="67"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="68"/>
+      <c r="AY17" s="69"/>
+      <c r="AZ17" s="69"/>
+      <c r="BA17" s="69"/>
+      <c r="BB17" s="69"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="53"/>
+      <c r="BE17" s="53"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="53"/>
+      <c r="CA17" s="67"/>
+      <c r="CJ17" s="67"/>
+      <c r="CK17" s="67"/>
+    </row>
+    <row r="18" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="X18" s="80"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="81"/>
-      <c r="AL18" s="81"/>
-      <c r="AM18" s="81"/>
-      <c r="BC18" s="66"/>
-      <c r="BD18" s="66"/>
-      <c r="BE18" s="85"/>
-      <c r="BF18" s="85"/>
-      <c r="BG18" s="85"/>
-      <c r="BH18" s="82"/>
-      <c r="BI18" s="82"/>
-      <c r="BJ18" s="82"/>
-      <c r="BK18" s="82"/>
-      <c r="BL18" s="82"/>
-      <c r="BM18" s="82"/>
-      <c r="BN18" s="82"/>
-      <c r="CA18" s="80"/>
-      <c r="CJ18" s="80"/>
-      <c r="CK18" s="80"/>
-    </row>
-    <row r="19" spans="1:89" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="60" t="s">
+      <c r="C18" s="65">
+        <v>42123</v>
+      </c>
+      <c r="D18" s="66">
+        <v>42136</v>
+      </c>
+      <c r="X18" s="67"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="BC18" s="53"/>
+      <c r="BD18" s="53"/>
+      <c r="BE18" s="72"/>
+      <c r="BF18" s="72"/>
+      <c r="BG18" s="72"/>
+      <c r="BH18" s="69"/>
+      <c r="BI18" s="69"/>
+      <c r="BJ18" s="69"/>
+      <c r="BK18" s="69"/>
+      <c r="BL18" s="69"/>
+      <c r="BM18" s="69"/>
+      <c r="BN18" s="69"/>
+      <c r="CA18" s="67"/>
+      <c r="CJ18" s="67"/>
+      <c r="CK18" s="67"/>
+    </row>
+    <row r="19" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="X19" s="80"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="81"/>
-      <c r="AL19" s="81"/>
-      <c r="AM19" s="81"/>
-      <c r="BC19" s="66"/>
-      <c r="BD19" s="66"/>
-      <c r="BE19" s="66"/>
-      <c r="BF19" s="66"/>
-      <c r="BG19" s="66"/>
-      <c r="CA19" s="80"/>
-      <c r="CJ19" s="80"/>
-      <c r="CK19" s="80"/>
-    </row>
-    <row r="20" spans="1:89" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="X19" s="67"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
+      <c r="BC19" s="53"/>
+      <c r="BD19" s="53"/>
+      <c r="BE19" s="53"/>
+      <c r="BF19" s="53"/>
+      <c r="BG19" s="53"/>
+      <c r="CA19" s="67"/>
+      <c r="CJ19" s="67"/>
+      <c r="CK19" s="67"/>
+    </row>
+    <row r="20" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="X20" s="80"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="81"/>
-      <c r="AM20" s="81"/>
-      <c r="BC20" s="66"/>
-      <c r="BD20" s="66"/>
-      <c r="BE20" s="66"/>
-      <c r="BF20" s="66"/>
-      <c r="BG20" s="66"/>
-      <c r="BO20" s="82"/>
-      <c r="BP20" s="82"/>
-      <c r="BQ20" s="82"/>
-      <c r="BR20" s="82"/>
-      <c r="BS20" s="82"/>
-      <c r="BT20" s="82"/>
-      <c r="BU20" s="82"/>
-      <c r="BV20" s="82"/>
-      <c r="BW20" s="82"/>
-      <c r="BX20" s="82"/>
-      <c r="BY20" s="82"/>
-      <c r="CA20" s="80"/>
-      <c r="CJ20" s="80"/>
-      <c r="CK20" s="80"/>
-    </row>
-    <row r="21" spans="1:89" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="88" t="s">
+      <c r="C20" s="65">
+        <v>42137</v>
+      </c>
+      <c r="D20" s="66">
+        <v>42151</v>
+      </c>
+      <c r="X20" s="67"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="BC20" s="53"/>
+      <c r="BD20" s="53"/>
+      <c r="BE20" s="53"/>
+      <c r="BF20" s="53"/>
+      <c r="BG20" s="53"/>
+      <c r="BO20" s="69"/>
+      <c r="BP20" s="69"/>
+      <c r="BQ20" s="69"/>
+      <c r="BR20" s="69"/>
+      <c r="BS20" s="69"/>
+      <c r="BT20" s="69"/>
+      <c r="BU20" s="69"/>
+      <c r="BV20" s="69"/>
+      <c r="BW20" s="69"/>
+      <c r="BX20" s="69"/>
+      <c r="BY20" s="69"/>
+      <c r="CA20" s="67"/>
+      <c r="CJ20" s="67"/>
+      <c r="CK20" s="67"/>
+    </row>
+    <row r="21" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="X21" s="80"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="81"/>
-      <c r="AM21" s="81"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="66"/>
-      <c r="BG21" s="66"/>
-      <c r="CA21" s="80"/>
-      <c r="CJ21" s="80"/>
-      <c r="CK21" s="80"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="X21" s="67"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="68"/>
+      <c r="AK21" s="68"/>
+      <c r="AL21" s="68"/>
+      <c r="AM21" s="68"/>
+      <c r="BC21" s="53"/>
+      <c r="BD21" s="53"/>
+      <c r="BE21" s="53"/>
+      <c r="BF21" s="53"/>
+      <c r="BG21" s="53"/>
+      <c r="CA21" s="67"/>
+      <c r="CJ21" s="67"/>
+      <c r="CK21" s="67"/>
     </row>
     <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="45"/>
+      <c r="B22" s="32"/>
       <c r="W22" s="16"/>
       <c r="X22" s="4"/>
       <c r="AI22" s="19"/>
@@ -2453,94 +2477,102 @@
       <c r="CJ22" s="4"/>
       <c r="CK22" s="4"/>
     </row>
-    <row r="23" spans="1:89" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="69" t="s">
+    <row r="23" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="X23" s="80"/>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="89"/>
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="89"/>
-      <c r="AN23" s="90"/>
-      <c r="AO23" s="90"/>
-      <c r="AP23" s="90"/>
-      <c r="AQ23" s="90"/>
-      <c r="AR23" s="90"/>
-      <c r="AS23" s="90"/>
-      <c r="AT23" s="84"/>
-      <c r="AU23" s="90"/>
-      <c r="AV23" s="90"/>
-      <c r="AW23" s="90"/>
-      <c r="AX23" s="90"/>
-      <c r="AY23" s="90"/>
-      <c r="AZ23" s="90"/>
-      <c r="BA23" s="90"/>
-      <c r="BB23" s="90"/>
-      <c r="BC23" s="84"/>
-      <c r="BD23" s="84"/>
-      <c r="BE23" s="66"/>
-      <c r="BF23" s="66"/>
-      <c r="BG23" s="66"/>
-      <c r="BH23" s="90"/>
-      <c r="BI23" s="90"/>
-      <c r="BJ23" s="90"/>
-      <c r="BK23" s="90"/>
-      <c r="BL23" s="90"/>
-      <c r="BM23" s="90"/>
-      <c r="BN23" s="84"/>
-      <c r="BO23" s="90"/>
-      <c r="BP23" s="90"/>
-      <c r="BQ23" s="90"/>
-      <c r="BR23" s="90"/>
-      <c r="BS23" s="90"/>
-      <c r="BT23" s="90"/>
-      <c r="BU23" s="90"/>
-      <c r="BV23" s="90"/>
-      <c r="BW23" s="90"/>
-      <c r="BX23" s="90"/>
-      <c r="BY23" s="84"/>
-      <c r="BZ23" s="90"/>
-      <c r="CA23" s="97"/>
-      <c r="CB23" s="91"/>
-      <c r="CC23" s="91"/>
-      <c r="CD23" s="91"/>
-      <c r="CE23" s="91"/>
-      <c r="CF23" s="91"/>
-      <c r="CG23" s="91"/>
-      <c r="CH23" s="91"/>
-      <c r="CI23" s="91"/>
-      <c r="CJ23" s="92"/>
-      <c r="CK23" s="93"/>
-    </row>
-    <row r="24" spans="1:89" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="69" t="s">
+      <c r="C23" s="65">
+        <v>42093</v>
+      </c>
+      <c r="D23" s="66">
+        <v>42166</v>
+      </c>
+      <c r="X23" s="67"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="71"/>
+      <c r="AU23" s="77"/>
+      <c r="AV23" s="77"/>
+      <c r="AW23" s="77"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="77"/>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="77"/>
+      <c r="BB23" s="77"/>
+      <c r="BC23" s="71"/>
+      <c r="BD23" s="71"/>
+      <c r="BE23" s="53"/>
+      <c r="BF23" s="53"/>
+      <c r="BG23" s="53"/>
+      <c r="BH23" s="77"/>
+      <c r="BI23" s="77"/>
+      <c r="BJ23" s="77"/>
+      <c r="BK23" s="77"/>
+      <c r="BL23" s="77"/>
+      <c r="BM23" s="77"/>
+      <c r="BN23" s="71"/>
+      <c r="BO23" s="77"/>
+      <c r="BP23" s="77"/>
+      <c r="BQ23" s="77"/>
+      <c r="BR23" s="77"/>
+      <c r="BS23" s="77"/>
+      <c r="BT23" s="77"/>
+      <c r="BU23" s="77"/>
+      <c r="BV23" s="77"/>
+      <c r="BW23" s="77"/>
+      <c r="BX23" s="77"/>
+      <c r="BY23" s="71"/>
+      <c r="BZ23" s="77"/>
+      <c r="CA23" s="84"/>
+      <c r="CB23" s="78"/>
+      <c r="CC23" s="78"/>
+      <c r="CD23" s="78"/>
+      <c r="CE23" s="78"/>
+      <c r="CF23" s="78"/>
+      <c r="CG23" s="78"/>
+      <c r="CH23" s="78"/>
+      <c r="CI23" s="78"/>
+      <c r="CJ23" s="79"/>
+      <c r="CK23" s="80"/>
+    </row>
+    <row r="24" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="X24" s="80"/>
-      <c r="AI24" s="81"/>
-      <c r="AJ24" s="81"/>
-      <c r="AK24" s="81"/>
-      <c r="AL24" s="81"/>
-      <c r="AM24" s="81"/>
-      <c r="BC24" s="66"/>
-      <c r="BD24" s="66"/>
-      <c r="BE24" s="66"/>
-      <c r="BF24" s="66"/>
-      <c r="BG24" s="66"/>
-      <c r="CA24" s="80"/>
-      <c r="CG24" s="89"/>
-      <c r="CH24" s="89"/>
-      <c r="CI24" s="89"/>
-      <c r="CJ24" s="94"/>
-      <c r="CK24" s="80"/>
+      <c r="C24" s="65">
+        <v>42529</v>
+      </c>
+      <c r="D24" s="66">
+        <v>42166</v>
+      </c>
+      <c r="X24" s="67"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="68"/>
+      <c r="AK24" s="68"/>
+      <c r="AL24" s="68"/>
+      <c r="AM24" s="68"/>
+      <c r="BC24" s="53"/>
+      <c r="BD24" s="53"/>
+      <c r="BE24" s="53"/>
+      <c r="BF24" s="53"/>
+      <c r="BG24" s="53"/>
+      <c r="CA24" s="67"/>
+      <c r="CG24" s="76"/>
+      <c r="CH24" s="76"/>
+      <c r="CI24" s="76"/>
+      <c r="CJ24" s="81"/>
+      <c r="CK24" s="67"/>
     </row>
     <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -2585,7 +2617,7 @@
     </row>
     <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="8">
@@ -2636,7 +2668,7 @@
     </row>
     <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="8">
@@ -2727,7 +2759,7 @@
     </row>
     <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="32" t="s">
         <v>3</v>
       </c>
       <c r="W29" s="16"/>
@@ -2770,16 +2802,16 @@
       <c r="CK29" s="4"/>
     </row>
     <row r="30" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="37" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="90">
         <v>42076</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2848,7 +2880,7 @@
       <c r="CK30" s="4"/>
     </row>
     <row r="31" spans="1:89" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
@@ -2941,14 +2973,14 @@
       <c r="CK31" s="4"/>
     </row>
     <row r="32" spans="1:89" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="48" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="85">
         <v>42166</v>
       </c>
-      <c r="D32" s="38"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3036,14 +3068,14 @@
       <c r="CK32" s="4"/>
     </row>
     <row r="33" spans="1:89" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="85">
         <v>42167</v>
       </c>
-      <c r="D33" s="38"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -3131,95 +3163,95 @@
       <c r="CK33" s="7"/>
     </row>
     <row r="34" spans="1:89" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
-      <c r="U34" s="53"/>
-      <c r="V34" s="53"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="53"/>
-      <c r="Y34" s="53"/>
-      <c r="Z34" s="53"/>
-      <c r="AA34" s="53"/>
-      <c r="AB34" s="53"/>
-      <c r="AC34" s="53"/>
-      <c r="AD34" s="53"/>
-      <c r="AE34" s="53"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="53"/>
-      <c r="AO34" s="53"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="53"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="53"/>
-      <c r="AU34" s="53"/>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="53"/>
-      <c r="BA34" s="53"/>
-      <c r="BB34" s="53"/>
-      <c r="BC34" s="57"/>
-      <c r="BD34" s="57"/>
-      <c r="BE34" s="57"/>
-      <c r="BF34" s="57"/>
-      <c r="BG34" s="57"/>
-      <c r="BH34" s="53"/>
-      <c r="BI34" s="53"/>
-      <c r="BJ34" s="53"/>
-      <c r="BK34" s="53"/>
-      <c r="BL34" s="53"/>
-      <c r="BM34" s="53"/>
-      <c r="BN34" s="53"/>
-      <c r="BO34" s="53"/>
-      <c r="BP34" s="53"/>
-      <c r="BQ34" s="53"/>
-      <c r="BR34" s="53"/>
-      <c r="BS34" s="53"/>
-      <c r="BT34" s="53"/>
-      <c r="BU34" s="53"/>
-      <c r="BV34" s="53"/>
-      <c r="BW34" s="53"/>
-      <c r="BX34" s="53"/>
-      <c r="BY34" s="53"/>
-      <c r="BZ34" s="53"/>
-      <c r="CA34" s="53"/>
-      <c r="CB34" s="53"/>
-      <c r="CC34" s="53"/>
-      <c r="CD34" s="53"/>
-      <c r="CE34" s="53"/>
-      <c r="CF34" s="53"/>
-      <c r="CG34" s="53"/>
-      <c r="CH34" s="53"/>
-      <c r="CI34" s="53"/>
-      <c r="CJ34" s="53"/>
-      <c r="CK34" s="58"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="40"/>
+      <c r="X34" s="40"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="40"/>
+      <c r="AA34" s="40"/>
+      <c r="AB34" s="40"/>
+      <c r="AC34" s="40"/>
+      <c r="AD34" s="40"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="40"/>
+      <c r="AG34" s="40"/>
+      <c r="AH34" s="40"/>
+      <c r="AI34" s="43"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="40"/>
+      <c r="AO34" s="40"/>
+      <c r="AP34" s="40"/>
+      <c r="AQ34" s="40"/>
+      <c r="AR34" s="40"/>
+      <c r="AS34" s="40"/>
+      <c r="AT34" s="40"/>
+      <c r="AU34" s="40"/>
+      <c r="AV34" s="40"/>
+      <c r="AW34" s="40"/>
+      <c r="AX34" s="40"/>
+      <c r="AY34" s="40"/>
+      <c r="AZ34" s="40"/>
+      <c r="BA34" s="40"/>
+      <c r="BB34" s="40"/>
+      <c r="BC34" s="44"/>
+      <c r="BD34" s="44"/>
+      <c r="BE34" s="44"/>
+      <c r="BF34" s="44"/>
+      <c r="BG34" s="44"/>
+      <c r="BH34" s="40"/>
+      <c r="BI34" s="40"/>
+      <c r="BJ34" s="40"/>
+      <c r="BK34" s="40"/>
+      <c r="BL34" s="40"/>
+      <c r="BM34" s="40"/>
+      <c r="BN34" s="40"/>
+      <c r="BO34" s="40"/>
+      <c r="BP34" s="40"/>
+      <c r="BQ34" s="40"/>
+      <c r="BR34" s="40"/>
+      <c r="BS34" s="40"/>
+      <c r="BT34" s="40"/>
+      <c r="BU34" s="40"/>
+      <c r="BV34" s="40"/>
+      <c r="BW34" s="40"/>
+      <c r="BX34" s="40"/>
+      <c r="BY34" s="40"/>
+      <c r="BZ34" s="40"/>
+      <c r="CA34" s="40"/>
+      <c r="CB34" s="40"/>
+      <c r="CC34" s="40"/>
+      <c r="CD34" s="40"/>
+      <c r="CE34" s="40"/>
+      <c r="CF34" s="40"/>
+      <c r="CG34" s="40"/>
+      <c r="CH34" s="40"/>
+      <c r="CI34" s="40"/>
+      <c r="CJ34" s="40"/>
+      <c r="CK34" s="45"/>
     </row>
     <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -3462,15 +3494,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="O2:AM2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="CB3:CF3"/>
+    <mergeCell ref="CG3:CK3"/>
+    <mergeCell ref="CB2:CK2"/>
+    <mergeCell ref="AD3:AH3"/>
+    <mergeCell ref="AI3:AM3"/>
     <mergeCell ref="BW3:CA3"/>
     <mergeCell ref="BH2:CA2"/>
     <mergeCell ref="AN2:BG2"/>
@@ -3481,12 +3509,16 @@
     <mergeCell ref="BH3:BL3"/>
     <mergeCell ref="BM3:BQ3"/>
     <mergeCell ref="BR3:BV3"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="O2:AM2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="E2:N2"/>
-    <mergeCell ref="CB3:CF3"/>
-    <mergeCell ref="CG3:CK3"/>
-    <mergeCell ref="CB2:CK2"/>
-    <mergeCell ref="AD3:AH3"/>
-    <mergeCell ref="AI3:AM3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/doc/Zeitplan/Zeitplan.xlsx
+++ b/doc/Zeitplan/Zeitplan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Tätigkeit</t>
   </si>
@@ -177,6 +177,9 @@
   <si>
     <t>Funktionierender Build</t>
   </si>
+  <si>
+    <t>—</t>
+  </si>
 </sst>
 </file>
 
@@ -216,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +268,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -563,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -632,9 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -719,45 +726,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1062,7 +1070,7 @@
   <dimension ref="A1:CL62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,101 +1091,101 @@
       <c r="B2" s="3"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="87" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="88"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="87"/>
       <c r="AM2" s="89"/>
-      <c r="AN2" s="95" t="s">
+      <c r="AN2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="96"/>
-      <c r="AQ2" s="96"/>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="96"/>
-      <c r="AU2" s="96"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="96"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="96"/>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="87" t="s">
+      <c r="AO2" s="91"/>
+      <c r="AP2" s="91"/>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="91"/>
+      <c r="AU2" s="91"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="91"/>
+      <c r="BB2" s="91"/>
+      <c r="BC2" s="91"/>
+      <c r="BD2" s="91"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="91"/>
+      <c r="BG2" s="91"/>
+      <c r="BH2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="88"/>
-      <c r="BM2" s="88"/>
-      <c r="BN2" s="88"/>
-      <c r="BO2" s="88"/>
-      <c r="BP2" s="88"/>
-      <c r="BQ2" s="88"/>
-      <c r="BR2" s="88"/>
-      <c r="BS2" s="88"/>
-      <c r="BT2" s="88"/>
-      <c r="BU2" s="88"/>
-      <c r="BV2" s="88"/>
-      <c r="BW2" s="88"/>
-      <c r="BX2" s="88"/>
-      <c r="BY2" s="88"/>
-      <c r="BZ2" s="88"/>
+      <c r="BI2" s="87"/>
+      <c r="BJ2" s="87"/>
+      <c r="BK2" s="87"/>
+      <c r="BL2" s="87"/>
+      <c r="BM2" s="87"/>
+      <c r="BN2" s="87"/>
+      <c r="BO2" s="87"/>
+      <c r="BP2" s="87"/>
+      <c r="BQ2" s="87"/>
+      <c r="BR2" s="87"/>
+      <c r="BS2" s="87"/>
+      <c r="BT2" s="87"/>
+      <c r="BU2" s="87"/>
+      <c r="BV2" s="87"/>
+      <c r="BW2" s="87"/>
+      <c r="BX2" s="87"/>
+      <c r="BY2" s="87"/>
+      <c r="BZ2" s="87"/>
       <c r="CA2" s="89"/>
-      <c r="CB2" s="87" t="s">
+      <c r="CB2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="CC2" s="88"/>
-      <c r="CD2" s="88"/>
-      <c r="CE2" s="88"/>
-      <c r="CF2" s="88"/>
-      <c r="CG2" s="88"/>
-      <c r="CH2" s="88"/>
-      <c r="CI2" s="88"/>
-      <c r="CJ2" s="88"/>
-      <c r="CK2" s="97"/>
+      <c r="CC2" s="87"/>
+      <c r="CD2" s="87"/>
+      <c r="CE2" s="87"/>
+      <c r="CF2" s="87"/>
+      <c r="CG2" s="87"/>
+      <c r="CH2" s="87"/>
+      <c r="CI2" s="87"/>
+      <c r="CJ2" s="87"/>
+      <c r="CK2" s="88"/>
     </row>
     <row r="3" spans="1:90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -1192,521 +1200,521 @@
       <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="92">
+      <c r="E3" s="83">
         <v>16</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84">
         <v>23</v>
       </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="92">
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="83">
         <v>2</v>
       </c>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93">
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84">
         <v>9</v>
       </c>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93">
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84">
         <v>16</v>
       </c>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93">
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84">
         <v>23</v>
       </c>
-      <c r="AE3" s="93"/>
-      <c r="AF3" s="93"/>
-      <c r="AG3" s="93"/>
-      <c r="AH3" s="93"/>
-      <c r="AI3" s="93">
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="84">
         <v>30</v>
       </c>
-      <c r="AJ3" s="93"/>
-      <c r="AK3" s="93"/>
-      <c r="AL3" s="93"/>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="92">
+      <c r="AJ3" s="84"/>
+      <c r="AK3" s="84"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="85"/>
+      <c r="AN3" s="83">
         <v>6</v>
       </c>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="93"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="93">
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="84"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84">
         <v>13</v>
       </c>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="93"/>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="93">
+      <c r="AT3" s="84"/>
+      <c r="AU3" s="84"/>
+      <c r="AV3" s="84"/>
+      <c r="AW3" s="84"/>
+      <c r="AX3" s="84">
         <v>20</v>
       </c>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="93">
+      <c r="AY3" s="84"/>
+      <c r="AZ3" s="84"/>
+      <c r="BA3" s="84"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="84">
         <v>27</v>
       </c>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="94"/>
-      <c r="BH3" s="93">
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="85"/>
+      <c r="BH3" s="84">
         <v>4</v>
       </c>
-      <c r="BI3" s="93"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="93"/>
-      <c r="BL3" s="93"/>
-      <c r="BM3" s="93">
+      <c r="BI3" s="84"/>
+      <c r="BJ3" s="84"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84"/>
+      <c r="BM3" s="84">
         <v>11</v>
       </c>
-      <c r="BN3" s="93"/>
-      <c r="BO3" s="93"/>
-      <c r="BP3" s="93"/>
-      <c r="BQ3" s="93"/>
-      <c r="BR3" s="93">
+      <c r="BN3" s="84"/>
+      <c r="BO3" s="84"/>
+      <c r="BP3" s="84"/>
+      <c r="BQ3" s="84"/>
+      <c r="BR3" s="84">
         <v>18</v>
       </c>
-      <c r="BS3" s="93"/>
-      <c r="BT3" s="93"/>
-      <c r="BU3" s="93"/>
-      <c r="BV3" s="93"/>
-      <c r="BW3" s="93">
+      <c r="BS3" s="84"/>
+      <c r="BT3" s="84"/>
+      <c r="BU3" s="84"/>
+      <c r="BV3" s="84"/>
+      <c r="BW3" s="84">
         <v>25</v>
       </c>
-      <c r="BX3" s="93"/>
-      <c r="BY3" s="93"/>
-      <c r="BZ3" s="93"/>
-      <c r="CA3" s="94"/>
-      <c r="CB3" s="92">
+      <c r="BX3" s="84"/>
+      <c r="BY3" s="84"/>
+      <c r="BZ3" s="84"/>
+      <c r="CA3" s="85"/>
+      <c r="CB3" s="83">
         <v>1</v>
       </c>
-      <c r="CC3" s="93"/>
-      <c r="CD3" s="93"/>
-      <c r="CE3" s="93"/>
-      <c r="CF3" s="93"/>
-      <c r="CG3" s="93">
+      <c r="CC3" s="84"/>
+      <c r="CD3" s="84"/>
+      <c r="CE3" s="84"/>
+      <c r="CF3" s="84"/>
+      <c r="CG3" s="84">
         <v>8</v>
       </c>
-      <c r="CH3" s="93"/>
-      <c r="CI3" s="93"/>
-      <c r="CJ3" s="93"/>
-      <c r="CK3" s="94"/>
+      <c r="CH3" s="84"/>
+      <c r="CI3" s="84"/>
+      <c r="CJ3" s="84"/>
+      <c r="CK3" s="85"/>
     </row>
     <row r="4" spans="1:90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="46">
         <v>42051</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="47">
         <v>42062</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="51"/>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="51"/>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="51"/>
-      <c r="BI4" s="51"/>
-      <c r="BJ4" s="51"/>
-      <c r="BK4" s="51"/>
-      <c r="BL4" s="51"/>
-      <c r="BM4" s="51"/>
-      <c r="BN4" s="51"/>
-      <c r="BO4" s="51"/>
-      <c r="BP4" s="51"/>
-      <c r="BQ4" s="51"/>
-      <c r="BR4" s="51"/>
-      <c r="BS4" s="51"/>
-      <c r="BT4" s="51"/>
-      <c r="BU4" s="51"/>
-      <c r="BV4" s="51"/>
-      <c r="BW4" s="51"/>
-      <c r="BX4" s="51"/>
-      <c r="BY4" s="51"/>
-      <c r="BZ4" s="51"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="51"/>
-      <c r="CC4" s="51"/>
-      <c r="CD4" s="51"/>
-      <c r="CE4" s="51"/>
-      <c r="CF4" s="51"/>
-      <c r="CG4" s="51"/>
-      <c r="CH4" s="51"/>
-      <c r="CI4" s="51"/>
-      <c r="CJ4" s="51"/>
-      <c r="CK4" s="62"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="49"/>
+      <c r="AX4" s="49"/>
+      <c r="AY4" s="49"/>
+      <c r="AZ4" s="49"/>
+      <c r="BA4" s="49"/>
+      <c r="BB4" s="49"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="51"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="49"/>
+      <c r="BK4" s="49"/>
+      <c r="BL4" s="49"/>
+      <c r="BM4" s="49"/>
+      <c r="BN4" s="49"/>
+      <c r="BO4" s="49"/>
+      <c r="BP4" s="49"/>
+      <c r="BQ4" s="49"/>
+      <c r="BR4" s="49"/>
+      <c r="BS4" s="49"/>
+      <c r="BT4" s="49"/>
+      <c r="BU4" s="49"/>
+      <c r="BV4" s="49"/>
+      <c r="BW4" s="49"/>
+      <c r="BX4" s="49"/>
+      <c r="BY4" s="49"/>
+      <c r="BZ4" s="49"/>
+      <c r="CA4" s="58"/>
+      <c r="CB4" s="49"/>
+      <c r="CC4" s="49"/>
+      <c r="CD4" s="49"/>
+      <c r="CE4" s="49"/>
+      <c r="CF4" s="49"/>
+      <c r="CG4" s="49"/>
+      <c r="CH4" s="49"/>
+      <c r="CI4" s="49"/>
+      <c r="CJ4" s="49"/>
+      <c r="CK4" s="60"/>
     </row>
     <row r="5" spans="1:90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="46">
         <v>42065</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="47">
         <v>42076</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="51"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="51"/>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="51"/>
-      <c r="AQ5" s="51"/>
-      <c r="AR5" s="51"/>
-      <c r="AS5" s="51"/>
-      <c r="AT5" s="51"/>
-      <c r="AU5" s="51"/>
-      <c r="AV5" s="51"/>
-      <c r="AW5" s="51"/>
-      <c r="AX5" s="51"/>
-      <c r="AY5" s="51"/>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="51"/>
-      <c r="BB5" s="51"/>
-      <c r="BC5" s="53"/>
-      <c r="BD5" s="53"/>
-      <c r="BE5" s="53"/>
-      <c r="BF5" s="53"/>
-      <c r="BG5" s="53"/>
-      <c r="BH5" s="51"/>
-      <c r="BI5" s="51"/>
-      <c r="BJ5" s="51"/>
-      <c r="BK5" s="51"/>
-      <c r="BL5" s="51"/>
-      <c r="BM5" s="51"/>
-      <c r="BN5" s="51"/>
-      <c r="BO5" s="51"/>
-      <c r="BP5" s="51"/>
-      <c r="BQ5" s="51"/>
-      <c r="BR5" s="51"/>
-      <c r="BS5" s="51"/>
-      <c r="BT5" s="51"/>
-      <c r="BU5" s="51"/>
-      <c r="BV5" s="51"/>
-      <c r="BW5" s="51"/>
-      <c r="BX5" s="51"/>
-      <c r="BY5" s="51"/>
-      <c r="BZ5" s="51"/>
-      <c r="CA5" s="60"/>
-      <c r="CB5" s="51"/>
-      <c r="CC5" s="51"/>
-      <c r="CD5" s="51"/>
-      <c r="CE5" s="51"/>
-      <c r="CF5" s="51"/>
-      <c r="CG5" s="51"/>
-      <c r="CH5" s="51"/>
-      <c r="CI5" s="51"/>
-      <c r="CJ5" s="51"/>
-      <c r="CK5" s="62"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="49"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="51"/>
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="51"/>
+      <c r="BG5" s="51"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="49"/>
+      <c r="BQ5" s="49"/>
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="49"/>
+      <c r="BT5" s="49"/>
+      <c r="BU5" s="49"/>
+      <c r="BV5" s="49"/>
+      <c r="BW5" s="49"/>
+      <c r="BX5" s="49"/>
+      <c r="BY5" s="49"/>
+      <c r="BZ5" s="49"/>
+      <c r="CA5" s="58"/>
+      <c r="CB5" s="49"/>
+      <c r="CC5" s="49"/>
+      <c r="CD5" s="49"/>
+      <c r="CE5" s="49"/>
+      <c r="CF5" s="49"/>
+      <c r="CG5" s="49"/>
+      <c r="CH5" s="49"/>
+      <c r="CI5" s="49"/>
+      <c r="CJ5" s="49"/>
+      <c r="CK5" s="60"/>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="46">
         <v>42051</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="47">
         <v>42076</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="51"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="51"/>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="51"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="51"/>
-      <c r="AQ6" s="51"/>
-      <c r="AR6" s="51"/>
-      <c r="AS6" s="51"/>
-      <c r="AT6" s="51"/>
-      <c r="AU6" s="51"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="51"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="51"/>
-      <c r="BI6" s="51"/>
-      <c r="BJ6" s="51"/>
-      <c r="BK6" s="51"/>
-      <c r="BL6" s="51"/>
-      <c r="BM6" s="51"/>
-      <c r="BN6" s="51"/>
-      <c r="BO6" s="51"/>
-      <c r="BP6" s="51"/>
-      <c r="BQ6" s="51"/>
-      <c r="BR6" s="51"/>
-      <c r="BS6" s="51"/>
-      <c r="BT6" s="51"/>
-      <c r="BU6" s="51"/>
-      <c r="BV6" s="51"/>
-      <c r="BW6" s="51"/>
-      <c r="BX6" s="51"/>
-      <c r="BY6" s="51"/>
-      <c r="BZ6" s="51"/>
-      <c r="CA6" s="60"/>
-      <c r="CB6" s="51"/>
-      <c r="CC6" s="51"/>
-      <c r="CD6" s="51"/>
-      <c r="CE6" s="51"/>
-      <c r="CF6" s="51"/>
-      <c r="CG6" s="51"/>
-      <c r="CH6" s="51"/>
-      <c r="CI6" s="51"/>
-      <c r="CJ6" s="51"/>
-      <c r="CK6" s="62"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
+      <c r="AB6" s="49"/>
+      <c r="AC6" s="49"/>
+      <c r="AD6" s="49"/>
+      <c r="AE6" s="49"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="51"/>
+      <c r="BG6" s="51"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
+      <c r="BQ6" s="49"/>
+      <c r="BR6" s="49"/>
+      <c r="BS6" s="49"/>
+      <c r="BT6" s="49"/>
+      <c r="BU6" s="49"/>
+      <c r="BV6" s="49"/>
+      <c r="BW6" s="49"/>
+      <c r="BX6" s="49"/>
+      <c r="BY6" s="49"/>
+      <c r="BZ6" s="49"/>
+      <c r="CA6" s="58"/>
+      <c r="CB6" s="49"/>
+      <c r="CC6" s="49"/>
+      <c r="CD6" s="49"/>
+      <c r="CE6" s="49"/>
+      <c r="CF6" s="49"/>
+      <c r="CG6" s="49"/>
+      <c r="CH6" s="49"/>
+      <c r="CI6" s="49"/>
+      <c r="CJ6" s="49"/>
+      <c r="CK6" s="60"/>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="46">
         <v>42058</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="47">
         <v>42071</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="51"/>
-      <c r="AO7" s="51"/>
-      <c r="AP7" s="51"/>
-      <c r="AQ7" s="51"/>
-      <c r="AR7" s="51"/>
-      <c r="AS7" s="51"/>
-      <c r="AT7" s="51"/>
-      <c r="AU7" s="51"/>
-      <c r="AV7" s="51"/>
-      <c r="AW7" s="51"/>
-      <c r="AX7" s="51"/>
-      <c r="AY7" s="51"/>
-      <c r="AZ7" s="51"/>
-      <c r="BA7" s="51"/>
-      <c r="BB7" s="51"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="51"/>
-      <c r="BI7" s="51"/>
-      <c r="BJ7" s="51"/>
-      <c r="BK7" s="51"/>
-      <c r="BL7" s="51"/>
-      <c r="BM7" s="51"/>
-      <c r="BN7" s="51"/>
-      <c r="BO7" s="51"/>
-      <c r="BP7" s="51"/>
-      <c r="BQ7" s="51"/>
-      <c r="BR7" s="51"/>
-      <c r="BS7" s="51"/>
-      <c r="BT7" s="51"/>
-      <c r="BU7" s="51"/>
-      <c r="BV7" s="51"/>
-      <c r="BW7" s="51"/>
-      <c r="BX7" s="51"/>
-      <c r="BY7" s="51"/>
-      <c r="BZ7" s="51"/>
-      <c r="CA7" s="60"/>
-      <c r="CB7" s="51"/>
-      <c r="CC7" s="51"/>
-      <c r="CD7" s="51"/>
-      <c r="CE7" s="51"/>
-      <c r="CF7" s="51"/>
-      <c r="CG7" s="51"/>
-      <c r="CH7" s="51"/>
-      <c r="CI7" s="51"/>
-      <c r="CJ7" s="51"/>
-      <c r="CK7" s="62"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="51"/>
+      <c r="BE7" s="51"/>
+      <c r="BF7" s="51"/>
+      <c r="BG7" s="51"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="49"/>
+      <c r="BT7" s="49"/>
+      <c r="BU7" s="49"/>
+      <c r="BV7" s="49"/>
+      <c r="BW7" s="49"/>
+      <c r="BX7" s="49"/>
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="49"/>
+      <c r="CA7" s="58"/>
+      <c r="CB7" s="49"/>
+      <c r="CC7" s="49"/>
+      <c r="CD7" s="49"/>
+      <c r="CE7" s="49"/>
+      <c r="CF7" s="49"/>
+      <c r="CG7" s="49"/>
+      <c r="CH7" s="49"/>
+      <c r="CI7" s="49"/>
+      <c r="CJ7" s="49"/>
+      <c r="CK7" s="60"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1797,108 +1805,112 @@
       <c r="CH8" s="24"/>
       <c r="CI8" s="24"/>
       <c r="CJ8" s="24"/>
-      <c r="CK8" s="61"/>
+      <c r="CK8" s="59"/>
       <c r="CL8" s="16"/>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="55">
         <v>42079</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="56">
         <v>42087</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="51"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="51"/>
-      <c r="AO9" s="51"/>
-      <c r="AP9" s="51"/>
-      <c r="AQ9" s="51"/>
-      <c r="AR9" s="51"/>
-      <c r="AS9" s="51"/>
-      <c r="AT9" s="51"/>
-      <c r="AU9" s="51"/>
-      <c r="AV9" s="51"/>
-      <c r="AW9" s="51"/>
-      <c r="AX9" s="51"/>
-      <c r="AY9" s="51"/>
-      <c r="AZ9" s="51"/>
-      <c r="BA9" s="51"/>
-      <c r="BB9" s="51"/>
-      <c r="BC9" s="53"/>
-      <c r="BD9" s="53"/>
-      <c r="BE9" s="53"/>
-      <c r="BF9" s="53"/>
-      <c r="BG9" s="53"/>
-      <c r="BH9" s="51"/>
-      <c r="BI9" s="51"/>
-      <c r="BJ9" s="51"/>
-      <c r="BK9" s="51"/>
-      <c r="BL9" s="51"/>
-      <c r="BM9" s="51"/>
-      <c r="BN9" s="51"/>
-      <c r="BO9" s="51"/>
-      <c r="BP9" s="51"/>
-      <c r="BQ9" s="51"/>
-      <c r="BR9" s="51"/>
-      <c r="BS9" s="51"/>
-      <c r="BT9" s="51"/>
-      <c r="BU9" s="51"/>
-      <c r="BV9" s="51"/>
-      <c r="BW9" s="51"/>
-      <c r="BX9" s="51"/>
-      <c r="BY9" s="51"/>
-      <c r="BZ9" s="51"/>
-      <c r="CA9" s="60"/>
-      <c r="CB9" s="51"/>
-      <c r="CC9" s="51"/>
-      <c r="CD9" s="51"/>
-      <c r="CE9" s="51"/>
-      <c r="CF9" s="51"/>
-      <c r="CG9" s="51"/>
-      <c r="CH9" s="51"/>
-      <c r="CI9" s="51"/>
-      <c r="CJ9" s="60"/>
-      <c r="CK9" s="62"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="49"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="51"/>
+      <c r="BD9" s="51"/>
+      <c r="BE9" s="51"/>
+      <c r="BF9" s="51"/>
+      <c r="BG9" s="51"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="49"/>
+      <c r="BJ9" s="49"/>
+      <c r="BK9" s="49"/>
+      <c r="BL9" s="49"/>
+      <c r="BM9" s="49"/>
+      <c r="BN9" s="49"/>
+      <c r="BO9" s="49"/>
+      <c r="BP9" s="49"/>
+      <c r="BQ9" s="49"/>
+      <c r="BR9" s="49"/>
+      <c r="BS9" s="49"/>
+      <c r="BT9" s="49"/>
+      <c r="BU9" s="49"/>
+      <c r="BV9" s="49"/>
+      <c r="BW9" s="49"/>
+      <c r="BX9" s="49"/>
+      <c r="BY9" s="49"/>
+      <c r="BZ9" s="49"/>
+      <c r="CA9" s="58"/>
+      <c r="CB9" s="49"/>
+      <c r="CC9" s="49"/>
+      <c r="CD9" s="49"/>
+      <c r="CE9" s="49"/>
+      <c r="CF9" s="49"/>
+      <c r="CG9" s="49"/>
+      <c r="CH9" s="49"/>
+      <c r="CI9" s="49"/>
+      <c r="CJ9" s="58"/>
+      <c r="CK9" s="60"/>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
+      <c r="A10" s="96" t="s">
+        <v>34</v>
+      </c>
       <c r="B10" s="32" t="s">
         <v>18</v>
       </c>
@@ -1994,446 +2006,460 @@
       <c r="CJ10" s="26"/>
       <c r="CK10" s="26"/>
     </row>
-    <row r="11" spans="1:90" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56" t="s">
+    <row r="11" spans="1:90" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="52"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="52"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="52"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="51"/>
-      <c r="AP11" s="51"/>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="51"/>
-      <c r="AU11" s="51"/>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="51"/>
-      <c r="AY11" s="51"/>
-      <c r="AZ11" s="51"/>
-      <c r="BA11" s="51"/>
-      <c r="BB11" s="51"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="53"/>
-      <c r="BH11" s="51"/>
-      <c r="BI11" s="51"/>
-      <c r="BJ11" s="51"/>
-      <c r="BK11" s="51"/>
-      <c r="BL11" s="51"/>
-      <c r="BM11" s="51"/>
-      <c r="BN11" s="51"/>
-      <c r="BO11" s="51"/>
-      <c r="BP11" s="51"/>
-      <c r="BQ11" s="51"/>
-      <c r="BR11" s="51"/>
-      <c r="BS11" s="51"/>
-      <c r="BT11" s="51"/>
-      <c r="BU11" s="51"/>
-      <c r="BV11" s="51"/>
-      <c r="BW11" s="51"/>
-      <c r="BX11" s="51"/>
-      <c r="BY11" s="51"/>
-      <c r="BZ11" s="51"/>
-      <c r="CA11" s="60"/>
-      <c r="CB11" s="51"/>
-      <c r="CC11" s="51"/>
-      <c r="CD11" s="51"/>
-      <c r="CE11" s="51"/>
-      <c r="CF11" s="51"/>
-      <c r="CG11" s="51"/>
-      <c r="CH11" s="51"/>
-      <c r="CI11" s="51"/>
-      <c r="CJ11" s="60"/>
-      <c r="CK11" s="60"/>
-    </row>
-    <row r="12" spans="1:90" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="47" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
+      <c r="AV11" s="49"/>
+      <c r="AW11" s="49"/>
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="49"/>
+      <c r="AZ11" s="49"/>
+      <c r="BA11" s="49"/>
+      <c r="BB11" s="49"/>
+      <c r="BC11" s="51"/>
+      <c r="BD11" s="51"/>
+      <c r="BE11" s="51"/>
+      <c r="BF11" s="51"/>
+      <c r="BG11" s="51"/>
+      <c r="BH11" s="49"/>
+      <c r="BI11" s="49"/>
+      <c r="BJ11" s="49"/>
+      <c r="BK11" s="49"/>
+      <c r="BL11" s="49"/>
+      <c r="BM11" s="49"/>
+      <c r="BN11" s="49"/>
+      <c r="BO11" s="49"/>
+      <c r="BP11" s="49"/>
+      <c r="BQ11" s="49"/>
+      <c r="BR11" s="49"/>
+      <c r="BS11" s="49"/>
+      <c r="BT11" s="49"/>
+      <c r="BU11" s="49"/>
+      <c r="BV11" s="49"/>
+      <c r="BW11" s="49"/>
+      <c r="BX11" s="49"/>
+      <c r="BY11" s="49"/>
+      <c r="BZ11" s="49"/>
+      <c r="CA11" s="58"/>
+      <c r="CB11" s="49"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="49"/>
+      <c r="CE11" s="49"/>
+      <c r="CF11" s="49"/>
+      <c r="CG11" s="49"/>
+      <c r="CH11" s="49"/>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="58"/>
+      <c r="CK11" s="58"/>
+    </row>
+    <row r="12" spans="1:90" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="63"/>
-      <c r="AK12" s="63"/>
-      <c r="AL12" s="63"/>
-      <c r="AM12" s="63"/>
-      <c r="AN12" s="63"/>
-      <c r="AO12" s="63"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="53"/>
-      <c r="BD12" s="53"/>
-      <c r="BE12" s="53"/>
-      <c r="BF12" s="53"/>
-      <c r="BG12" s="53"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="51"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
-      <c r="BM12" s="51"/>
-      <c r="BN12" s="51"/>
-      <c r="BO12" s="51"/>
-      <c r="BP12" s="51"/>
-      <c r="BQ12" s="51"/>
-      <c r="BR12" s="51"/>
-      <c r="BS12" s="51"/>
-      <c r="BT12" s="51"/>
-      <c r="BU12" s="51"/>
-      <c r="BV12" s="51"/>
-      <c r="BW12" s="51"/>
-      <c r="BX12" s="51"/>
-      <c r="BY12" s="51"/>
-      <c r="BZ12" s="51"/>
-      <c r="CA12" s="60"/>
-      <c r="CB12" s="51"/>
-      <c r="CC12" s="51"/>
-      <c r="CD12" s="51"/>
-      <c r="CE12" s="51"/>
-      <c r="CF12" s="51"/>
-      <c r="CG12" s="51"/>
-      <c r="CH12" s="51"/>
-      <c r="CI12" s="51"/>
-      <c r="CJ12" s="60"/>
-      <c r="CK12" s="60"/>
-    </row>
-    <row r="13" spans="1:90" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="64" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="61"/>
+      <c r="AI12" s="61"/>
+      <c r="AJ12" s="61"/>
+      <c r="AK12" s="61"/>
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="61"/>
+      <c r="AN12" s="61"/>
+      <c r="AO12" s="61"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
+      <c r="BB12" s="49"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="49"/>
+      <c r="BL12" s="49"/>
+      <c r="BM12" s="49"/>
+      <c r="BN12" s="49"/>
+      <c r="BO12" s="49"/>
+      <c r="BP12" s="49"/>
+      <c r="BQ12" s="49"/>
+      <c r="BR12" s="49"/>
+      <c r="BS12" s="49"/>
+      <c r="BT12" s="49"/>
+      <c r="BU12" s="49"/>
+      <c r="BV12" s="49"/>
+      <c r="BW12" s="49"/>
+      <c r="BX12" s="49"/>
+      <c r="BY12" s="49"/>
+      <c r="BZ12" s="49"/>
+      <c r="CA12" s="58"/>
+      <c r="CB12" s="49"/>
+      <c r="CC12" s="49"/>
+      <c r="CD12" s="49"/>
+      <c r="CE12" s="49"/>
+      <c r="CF12" s="49"/>
+      <c r="CG12" s="49"/>
+      <c r="CH12" s="49"/>
+      <c r="CI12" s="49"/>
+      <c r="CJ12" s="58"/>
+      <c r="CK12" s="58"/>
+    </row>
+    <row r="13" spans="1:90" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="X13" s="67"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="68"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="BC13" s="53"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="53"/>
-      <c r="BF13" s="53"/>
-      <c r="BG13" s="53"/>
-      <c r="CA13" s="67"/>
-      <c r="CJ13" s="67"/>
-      <c r="CK13" s="67"/>
-    </row>
-    <row r="14" spans="1:90" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="X13" s="65"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AO13" s="67"/>
+      <c r="AP13" s="67"/>
+      <c r="AQ13" s="67"/>
+      <c r="AR13" s="67"/>
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="67"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="CA13" s="65"/>
+      <c r="CJ13" s="65"/>
+      <c r="CK13" s="65"/>
+    </row>
+    <row r="14" spans="1:90" s="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="63">
         <v>42109</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="64">
         <v>42123</v>
       </c>
-      <c r="X14" s="67"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="68"/>
-      <c r="AK14" s="68"/>
-      <c r="AL14" s="68"/>
-      <c r="AM14" s="68"/>
-      <c r="AS14" s="70"/>
-      <c r="AT14" s="70"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
-      <c r="BC14" s="71"/>
-      <c r="BD14" s="71"/>
-      <c r="BE14" s="53"/>
-      <c r="BF14" s="53"/>
-      <c r="BG14" s="53"/>
-      <c r="CA14" s="67"/>
-      <c r="CJ14" s="67"/>
-      <c r="CK14" s="67"/>
-    </row>
-    <row r="15" spans="1:90" s="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56" t="s">
+      <c r="X14" s="65"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="68"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="67"/>
+      <c r="AW14" s="67"/>
+      <c r="AX14" s="67"/>
+      <c r="AY14" s="67"/>
+      <c r="AZ14" s="67"/>
+      <c r="BA14" s="67"/>
+      <c r="BB14" s="67"/>
+      <c r="BC14" s="69"/>
+      <c r="BD14" s="69"/>
+      <c r="BE14" s="51"/>
+      <c r="BF14" s="51"/>
+      <c r="BG14" s="51"/>
+      <c r="CA14" s="65"/>
+      <c r="CJ14" s="65"/>
+      <c r="CK14" s="65"/>
+    </row>
+    <row r="15" spans="1:90" s="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="X15" s="67"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AS15" s="70"/>
-      <c r="AT15" s="70"/>
-      <c r="AV15" s="69"/>
-      <c r="BC15" s="53"/>
-      <c r="BD15" s="53"/>
-      <c r="BE15" s="53"/>
-      <c r="BF15" s="53"/>
-      <c r="BG15" s="53"/>
-      <c r="CA15" s="67"/>
-      <c r="CJ15" s="67"/>
-      <c r="CK15" s="67"/>
-    </row>
-    <row r="16" spans="1:90" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="47" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="X15" s="65"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="68"/>
+      <c r="AV15" s="67"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="CA15" s="65"/>
+      <c r="CJ15" s="65"/>
+      <c r="CK15" s="65"/>
+    </row>
+    <row r="16" spans="1:90" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="X16" s="67"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="68"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="BC16" s="53"/>
-      <c r="BD16" s="53"/>
-      <c r="BE16" s="53"/>
-      <c r="BF16" s="53"/>
-      <c r="BG16" s="53"/>
-      <c r="CA16" s="67"/>
-      <c r="CJ16" s="67"/>
-      <c r="CK16" s="67"/>
-    </row>
-    <row r="17" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="X16" s="65"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AV16" s="67"/>
+      <c r="AW16" s="67"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="67"/>
+      <c r="BC16" s="51"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
+      <c r="BF16" s="51"/>
+      <c r="BG16" s="51"/>
+      <c r="CA16" s="65"/>
+      <c r="CJ16" s="65"/>
+      <c r="CK16" s="65"/>
+    </row>
+    <row r="17" spans="1:89" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="X17" s="67"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="68"/>
-      <c r="AK17" s="68"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="68"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
-      <c r="BB17" s="69"/>
-      <c r="BC17" s="53"/>
-      <c r="BD17" s="53"/>
-      <c r="BE17" s="53"/>
-      <c r="BF17" s="53"/>
-      <c r="BG17" s="53"/>
-      <c r="CA17" s="67"/>
-      <c r="CJ17" s="67"/>
-      <c r="CK17" s="67"/>
-    </row>
-    <row r="18" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="X17" s="65"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AY17" s="67"/>
+      <c r="AZ17" s="67"/>
+      <c r="BA17" s="67"/>
+      <c r="BB17" s="67"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="CA17" s="65"/>
+      <c r="CJ17" s="65"/>
+      <c r="CK17" s="65"/>
+    </row>
+    <row r="18" spans="1:89" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="65">
+      <c r="C18" s="63">
         <v>42123</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="64">
         <v>42136</v>
       </c>
-      <c r="X18" s="67"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="68"/>
-      <c r="AK18" s="68"/>
-      <c r="AL18" s="68"/>
-      <c r="AM18" s="68"/>
-      <c r="BC18" s="53"/>
-      <c r="BD18" s="53"/>
-      <c r="BE18" s="72"/>
-      <c r="BF18" s="72"/>
-      <c r="BG18" s="72"/>
-      <c r="BH18" s="69"/>
-      <c r="BI18" s="69"/>
-      <c r="BJ18" s="69"/>
-      <c r="BK18" s="69"/>
-      <c r="BL18" s="69"/>
-      <c r="BM18" s="69"/>
-      <c r="BN18" s="69"/>
-      <c r="CA18" s="67"/>
-      <c r="CJ18" s="67"/>
-      <c r="CK18" s="67"/>
-    </row>
-    <row r="19" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="47" t="s">
+      <c r="X18" s="65"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
+      <c r="AM18" s="66"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="70"/>
+      <c r="BF18" s="70"/>
+      <c r="BG18" s="70"/>
+      <c r="BH18" s="67"/>
+      <c r="BI18" s="67"/>
+      <c r="BJ18" s="67"/>
+      <c r="BK18" s="67"/>
+      <c r="BL18" s="67"/>
+      <c r="BM18" s="67"/>
+      <c r="BN18" s="67"/>
+      <c r="CA18" s="65"/>
+      <c r="CJ18" s="65"/>
+      <c r="CK18" s="65"/>
+    </row>
+    <row r="19" spans="1:89" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71"/>
+      <c r="B19" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="X19" s="67"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="68"/>
-      <c r="AK19" s="68"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="BC19" s="53"/>
-      <c r="BD19" s="53"/>
-      <c r="BE19" s="53"/>
-      <c r="BF19" s="53"/>
-      <c r="BG19" s="53"/>
-      <c r="CA19" s="67"/>
-      <c r="CJ19" s="67"/>
-      <c r="CK19" s="67"/>
-    </row>
-    <row r="20" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="X19" s="65"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="BC19" s="51"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
+      <c r="BF19" s="51"/>
+      <c r="BG19" s="51"/>
+      <c r="CA19" s="65"/>
+      <c r="CJ19" s="65"/>
+      <c r="CK19" s="65"/>
+    </row>
+    <row r="20" spans="1:89" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="63">
         <v>42137</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="64">
         <v>42151</v>
       </c>
-      <c r="X20" s="67"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="68"/>
-      <c r="AK20" s="68"/>
-      <c r="AL20" s="68"/>
-      <c r="AM20" s="68"/>
-      <c r="BC20" s="53"/>
-      <c r="BD20" s="53"/>
-      <c r="BE20" s="53"/>
-      <c r="BF20" s="53"/>
-      <c r="BG20" s="53"/>
-      <c r="BO20" s="69"/>
-      <c r="BP20" s="69"/>
-      <c r="BQ20" s="69"/>
-      <c r="BR20" s="69"/>
-      <c r="BS20" s="69"/>
-      <c r="BT20" s="69"/>
-      <c r="BU20" s="69"/>
-      <c r="BV20" s="69"/>
-      <c r="BW20" s="69"/>
-      <c r="BX20" s="69"/>
-      <c r="BY20" s="69"/>
-      <c r="CA20" s="67"/>
-      <c r="CJ20" s="67"/>
-      <c r="CK20" s="67"/>
-    </row>
-    <row r="21" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="75" t="s">
+      <c r="X20" s="65"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="BC20" s="51"/>
+      <c r="BD20" s="51"/>
+      <c r="BE20" s="51"/>
+      <c r="BF20" s="51"/>
+      <c r="BG20" s="51"/>
+      <c r="BO20" s="67"/>
+      <c r="BP20" s="67"/>
+      <c r="BQ20" s="67"/>
+      <c r="BR20" s="67"/>
+      <c r="BS20" s="67"/>
+      <c r="BT20" s="67"/>
+      <c r="BU20" s="67"/>
+      <c r="BV20" s="67"/>
+      <c r="BW20" s="67"/>
+      <c r="BX20" s="67"/>
+      <c r="BY20" s="67"/>
+      <c r="CA20" s="65"/>
+      <c r="CJ20" s="65"/>
+      <c r="CK20" s="65"/>
+    </row>
+    <row r="21" spans="1:89" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="X21" s="67"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="68"/>
-      <c r="AK21" s="68"/>
-      <c r="AL21" s="68"/>
-      <c r="AM21" s="68"/>
-      <c r="BC21" s="53"/>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
-      <c r="BF21" s="53"/>
-      <c r="BG21" s="53"/>
-      <c r="CA21" s="67"/>
-      <c r="CJ21" s="67"/>
-      <c r="CK21" s="67"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="X21" s="65"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="51"/>
+      <c r="CA21" s="65"/>
+      <c r="CJ21" s="65"/>
+      <c r="CK21" s="65"/>
     </row>
     <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -2477,102 +2503,106 @@
       <c r="CJ22" s="4"/>
       <c r="CK22" s="4"/>
     </row>
-    <row r="23" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="56" t="s">
+    <row r="23" spans="1:89" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="63">
         <v>42093</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="64">
         <v>42166</v>
       </c>
-      <c r="X23" s="67"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="76"/>
-      <c r="AL23" s="76"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="77"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="77"/>
-      <c r="AT23" s="71"/>
-      <c r="AU23" s="77"/>
-      <c r="AV23" s="77"/>
-      <c r="AW23" s="77"/>
-      <c r="AX23" s="77"/>
-      <c r="AY23" s="77"/>
-      <c r="AZ23" s="77"/>
-      <c r="BA23" s="77"/>
-      <c r="BB23" s="77"/>
-      <c r="BC23" s="71"/>
-      <c r="BD23" s="71"/>
-      <c r="BE23" s="53"/>
-      <c r="BF23" s="53"/>
-      <c r="BG23" s="53"/>
-      <c r="BH23" s="77"/>
-      <c r="BI23" s="77"/>
-      <c r="BJ23" s="77"/>
-      <c r="BK23" s="77"/>
-      <c r="BL23" s="77"/>
-      <c r="BM23" s="77"/>
-      <c r="BN23" s="71"/>
-      <c r="BO23" s="77"/>
-      <c r="BP23" s="77"/>
-      <c r="BQ23" s="77"/>
-      <c r="BR23" s="77"/>
-      <c r="BS23" s="77"/>
-      <c r="BT23" s="77"/>
-      <c r="BU23" s="77"/>
-      <c r="BV23" s="77"/>
-      <c r="BW23" s="77"/>
-      <c r="BX23" s="77"/>
-      <c r="BY23" s="71"/>
-      <c r="BZ23" s="77"/>
-      <c r="CA23" s="84"/>
-      <c r="CB23" s="78"/>
-      <c r="CC23" s="78"/>
-      <c r="CD23" s="78"/>
-      <c r="CE23" s="78"/>
-      <c r="CF23" s="78"/>
-      <c r="CG23" s="78"/>
-      <c r="CH23" s="78"/>
-      <c r="CI23" s="78"/>
-      <c r="CJ23" s="79"/>
-      <c r="CK23" s="80"/>
-    </row>
-    <row r="24" spans="1:89" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="56" t="s">
+      <c r="X23" s="65"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="74"/>
+      <c r="AK23" s="74"/>
+      <c r="AL23" s="74"/>
+      <c r="AM23" s="74"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="75"/>
+      <c r="AP23" s="75"/>
+      <c r="AQ23" s="75"/>
+      <c r="AR23" s="75"/>
+      <c r="AS23" s="75"/>
+      <c r="AT23" s="69"/>
+      <c r="AU23" s="75"/>
+      <c r="AV23" s="75"/>
+      <c r="AW23" s="75"/>
+      <c r="AX23" s="75"/>
+      <c r="AY23" s="75"/>
+      <c r="AZ23" s="75"/>
+      <c r="BA23" s="75"/>
+      <c r="BB23" s="75"/>
+      <c r="BC23" s="69"/>
+      <c r="BD23" s="69"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="75"/>
+      <c r="BI23" s="75"/>
+      <c r="BJ23" s="75"/>
+      <c r="BK23" s="75"/>
+      <c r="BL23" s="75"/>
+      <c r="BM23" s="75"/>
+      <c r="BN23" s="69"/>
+      <c r="BO23" s="75"/>
+      <c r="BP23" s="75"/>
+      <c r="BQ23" s="75"/>
+      <c r="BR23" s="75"/>
+      <c r="BS23" s="75"/>
+      <c r="BT23" s="75"/>
+      <c r="BU23" s="75"/>
+      <c r="BV23" s="75"/>
+      <c r="BW23" s="75"/>
+      <c r="BX23" s="75"/>
+      <c r="BY23" s="69"/>
+      <c r="BZ23" s="75"/>
+      <c r="CA23" s="82"/>
+      <c r="CB23" s="76"/>
+      <c r="CC23" s="76"/>
+      <c r="CD23" s="76"/>
+      <c r="CE23" s="76"/>
+      <c r="CF23" s="76"/>
+      <c r="CG23" s="76"/>
+      <c r="CH23" s="76"/>
+      <c r="CI23" s="76"/>
+      <c r="CJ23" s="77"/>
+      <c r="CK23" s="78"/>
+    </row>
+    <row r="24" spans="1:89" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="63">
         <v>42529</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="64">
         <v>42166</v>
       </c>
-      <c r="X24" s="67"/>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="68"/>
-      <c r="AK24" s="68"/>
-      <c r="AL24" s="68"/>
-      <c r="AM24" s="68"/>
-      <c r="BC24" s="53"/>
-      <c r="BD24" s="53"/>
-      <c r="BE24" s="53"/>
-      <c r="BF24" s="53"/>
-      <c r="BG24" s="53"/>
-      <c r="CA24" s="67"/>
-      <c r="CG24" s="76"/>
-      <c r="CH24" s="76"/>
-      <c r="CI24" s="76"/>
-      <c r="CJ24" s="81"/>
-      <c r="CK24" s="67"/>
+      <c r="X24" s="65"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
+      <c r="AM24" s="66"/>
+      <c r="BC24" s="51"/>
+      <c r="BD24" s="51"/>
+      <c r="BE24" s="51"/>
+      <c r="BF24" s="51"/>
+      <c r="BG24" s="51"/>
+      <c r="CA24" s="65"/>
+      <c r="CG24" s="74"/>
+      <c r="CH24" s="74"/>
+      <c r="CI24" s="74"/>
+      <c r="CJ24" s="79"/>
+      <c r="CK24" s="65"/>
     </row>
     <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -2802,16 +2832,16 @@
       <c r="CK29" s="4"/>
     </row>
     <row r="30" spans="1:89" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="90">
+      <c r="C30" s="94">
         <v>42076</v>
       </c>
-      <c r="D30" s="91"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2880,7 +2910,9 @@
       <c r="CK30" s="4"/>
     </row>
     <row r="31" spans="1:89" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+      <c r="A31" s="44" t="s">
+        <v>25</v>
+      </c>
       <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
@@ -2973,14 +3005,16 @@
       <c r="CK31" s="4"/>
     </row>
     <row r="32" spans="1:89" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
+      <c r="A32" s="44" t="s">
+        <v>25</v>
+      </c>
       <c r="B32" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="85">
+      <c r="C32" s="92">
         <v>42166</v>
       </c>
-      <c r="D32" s="86"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -3068,14 +3102,16 @@
       <c r="CK32" s="4"/>
     </row>
     <row r="33" spans="1:89" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
+      <c r="A33" s="44" t="s">
+        <v>25</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="85">
+      <c r="C33" s="92">
         <v>42167</v>
       </c>
-      <c r="D33" s="86"/>
+      <c r="D33" s="93"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -3163,95 +3199,95 @@
       <c r="CK33" s="7"/>
     </row>
     <row r="34" spans="1:89" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="40"/>
-      <c r="X34" s="40"/>
-      <c r="Y34" s="40"/>
-      <c r="Z34" s="40"/>
-      <c r="AA34" s="40"/>
-      <c r="AB34" s="40"/>
-      <c r="AC34" s="40"/>
-      <c r="AD34" s="40"/>
-      <c r="AE34" s="40"/>
-      <c r="AF34" s="40"/>
-      <c r="AG34" s="40"/>
-      <c r="AH34" s="40"/>
-      <c r="AI34" s="43"/>
-      <c r="AJ34" s="43"/>
-      <c r="AK34" s="43"/>
-      <c r="AL34" s="43"/>
-      <c r="AM34" s="43"/>
-      <c r="AN34" s="40"/>
-      <c r="AO34" s="40"/>
-      <c r="AP34" s="40"/>
-      <c r="AQ34" s="40"/>
-      <c r="AR34" s="40"/>
-      <c r="AS34" s="40"/>
-      <c r="AT34" s="40"/>
-      <c r="AU34" s="40"/>
-      <c r="AV34" s="40"/>
-      <c r="AW34" s="40"/>
-      <c r="AX34" s="40"/>
-      <c r="AY34" s="40"/>
-      <c r="AZ34" s="40"/>
-      <c r="BA34" s="40"/>
-      <c r="BB34" s="40"/>
-      <c r="BC34" s="44"/>
-      <c r="BD34" s="44"/>
-      <c r="BE34" s="44"/>
-      <c r="BF34" s="44"/>
-      <c r="BG34" s="44"/>
-      <c r="BH34" s="40"/>
-      <c r="BI34" s="40"/>
-      <c r="BJ34" s="40"/>
-      <c r="BK34" s="40"/>
-      <c r="BL34" s="40"/>
-      <c r="BM34" s="40"/>
-      <c r="BN34" s="40"/>
-      <c r="BO34" s="40"/>
-      <c r="BP34" s="40"/>
-      <c r="BQ34" s="40"/>
-      <c r="BR34" s="40"/>
-      <c r="BS34" s="40"/>
-      <c r="BT34" s="40"/>
-      <c r="BU34" s="40"/>
-      <c r="BV34" s="40"/>
-      <c r="BW34" s="40"/>
-      <c r="BX34" s="40"/>
-      <c r="BY34" s="40"/>
-      <c r="BZ34" s="40"/>
-      <c r="CA34" s="40"/>
-      <c r="CB34" s="40"/>
-      <c r="CC34" s="40"/>
-      <c r="CD34" s="40"/>
-      <c r="CE34" s="40"/>
-      <c r="CF34" s="40"/>
-      <c r="CG34" s="40"/>
-      <c r="CH34" s="40"/>
-      <c r="CI34" s="40"/>
-      <c r="CJ34" s="40"/>
-      <c r="CK34" s="45"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+      <c r="W34" s="38"/>
+      <c r="X34" s="38"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="38"/>
+      <c r="AC34" s="38"/>
+      <c r="AD34" s="38"/>
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="41"/>
+      <c r="AJ34" s="41"/>
+      <c r="AK34" s="41"/>
+      <c r="AL34" s="41"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="38"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38"/>
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+      <c r="AX34" s="38"/>
+      <c r="AY34" s="38"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="38"/>
+      <c r="BB34" s="38"/>
+      <c r="BC34" s="42"/>
+      <c r="BD34" s="42"/>
+      <c r="BE34" s="42"/>
+      <c r="BF34" s="42"/>
+      <c r="BG34" s="42"/>
+      <c r="BH34" s="38"/>
+      <c r="BI34" s="38"/>
+      <c r="BJ34" s="38"/>
+      <c r="BK34" s="38"/>
+      <c r="BL34" s="38"/>
+      <c r="BM34" s="38"/>
+      <c r="BN34" s="38"/>
+      <c r="BO34" s="38"/>
+      <c r="BP34" s="38"/>
+      <c r="BQ34" s="38"/>
+      <c r="BR34" s="38"/>
+      <c r="BS34" s="38"/>
+      <c r="BT34" s="38"/>
+      <c r="BU34" s="38"/>
+      <c r="BV34" s="38"/>
+      <c r="BW34" s="38"/>
+      <c r="BX34" s="38"/>
+      <c r="BY34" s="38"/>
+      <c r="BZ34" s="38"/>
+      <c r="CA34" s="38"/>
+      <c r="CB34" s="38"/>
+      <c r="CC34" s="38"/>
+      <c r="CD34" s="38"/>
+      <c r="CE34" s="38"/>
+      <c r="CF34" s="38"/>
+      <c r="CG34" s="38"/>
+      <c r="CH34" s="38"/>
+      <c r="CI34" s="38"/>
+      <c r="CJ34" s="38"/>
+      <c r="CK34" s="43"/>
     </row>
     <row r="35" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
@@ -3494,6 +3530,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="O2:AM2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AC3"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E2:N2"/>
     <mergeCell ref="CB3:CF3"/>
     <mergeCell ref="CG3:CK3"/>
     <mergeCell ref="CB2:CK2"/>
@@ -3509,16 +3555,6 @@
     <mergeCell ref="BH3:BL3"/>
     <mergeCell ref="BM3:BQ3"/>
     <mergeCell ref="BR3:BV3"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="O2:AM2"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AC3"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E2:N2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="75" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
